--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\MDS\capstone\w2020-data599-capstone-projects-ubc-udl\personal-logs\nathan-smith\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90792D2-6BBC-44D9-84BD-B5A1607382AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7C53C-9202-4291-98F7-40B7C42B47D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -132,6 +132,51 @@
   </si>
   <si>
     <t>Nathan Smith</t>
+  </si>
+  <si>
+    <t>Discuss Gantt chart and tasks</t>
+  </si>
+  <si>
+    <t>Update Gantt chart and upload to OneDrive for client</t>
+  </si>
+  <si>
+    <t>Stand-up</t>
+  </si>
+  <si>
+    <t>Work on proposal/review progress to date on it</t>
+  </si>
+  <si>
+    <t>Meeting with client to discuss project</t>
+  </si>
+  <si>
+    <t>Internal post client meeting</t>
+  </si>
+  <si>
+    <t>Update meeting minutes</t>
+  </si>
+  <si>
+    <t>Update Gantt chart</t>
+  </si>
+  <si>
+    <t>Work on proposal statement of work section</t>
+  </si>
+  <si>
+    <t>Work on proposal</t>
+  </si>
+  <si>
+    <t>Scrum meeting with client</t>
+  </si>
+  <si>
+    <t>Kanban board organization and scrum meeting document clean-up</t>
+  </si>
+  <si>
+    <t>Finish draft proposal</t>
+  </si>
+  <si>
+    <t>Update proposal with client comments</t>
+  </si>
+  <si>
+    <t>Proposal Presentation</t>
   </si>
 </sst>
 </file>
@@ -735,7 +780,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -840,6 +885,12 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="20" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -848,11 +899,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="20" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -900,126 +946,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill>
@@ -1615,8 +1542,8 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -1711,12 +1638,12 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31">
+      <c r="A14" s="34">
         <f>D3</f>
         <v>44319</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
@@ -1827,12 +1754,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="31">
+      <c r="A25" s="34">
         <f>A14+1</f>
         <v>44320</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
@@ -1923,9 +1850,15 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="27">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20"/>
@@ -1933,56 +1866,106 @@
       <c r="C35" s="27"/>
       <c r="D35">
         <f>SUM(C26:C35)</f>
-        <v>7.25</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="31">
+      <c r="A36" s="34">
         <f>A25+1</f>
         <v>44321</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="19"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="D43" s="33"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="20"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="27">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="20"/>
@@ -1995,46 +1978,82 @@
       <c r="C46" s="27"/>
       <c r="D46">
         <f>SUM(C37:C46)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="31">
+      <c r="A47" s="34">
         <f>A36+1</f>
         <v>44322</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="33"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="18"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="18"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="25">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="25">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="19"/>
@@ -2057,31 +2076,49 @@
       <c r="C57" s="27"/>
       <c r="D57">
         <f>SUM(C48:C57)</f>
-        <v>0</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="31">
+      <c r="A58" s="34">
         <f>A47+1</f>
         <v>44323</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="33"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="31"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="18"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="18"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="25">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="18"/>
@@ -2119,16 +2156,16 @@
       <c r="C68" s="27"/>
       <c r="D68">
         <f>SUM(C59:C68)</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="31">
+      <c r="A69" s="34">
         <f>A58+1</f>
         <v>44324</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="33"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="31"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="18"/>
@@ -2185,12 +2222,12 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="31">
+      <c r="A80" s="34">
         <f>A69+1</f>
         <v>44325</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="33"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="31"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="18"/>
@@ -2262,9 +2299,9 @@
         <v>5</v>
       </c>
       <c r="B93" s="17"/>
-      <c r="C93" s="34">
+      <c r="C93" s="32">
         <f>SUM(C14:C90)</f>
-        <v>17.5</v>
+        <v>36.5</v>
       </c>
       <c r="D93" s="13"/>
     </row>
@@ -2308,156 +2345,156 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="47" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="46" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="44" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="43" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="41" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="40" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="39" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="38" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="37" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="36" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="34" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="32" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="27" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7C53C-9202-4291-98F7-40B7C42B47D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0FD9BF-204F-4151-84F4-2CDA7FB98B60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>Proposal Presentation</t>
+  </si>
+  <si>
+    <t>High-level review of anomaly detection algorithms</t>
+  </si>
+  <si>
+    <t>Finalize proposal and presentation</t>
+  </si>
+  <si>
+    <t>Update GitHub READMEs</t>
   </si>
 </sst>
 </file>
@@ -1542,8 +1551,8 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2117,13 +2126,19 @@
         <v>24</v>
       </c>
       <c r="C61" s="25">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="18"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="18"/>
@@ -2156,7 +2171,7 @@
       <c r="C68" s="27"/>
       <c r="D68">
         <f>SUM(C59:C68)</f>
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2168,14 +2183,26 @@
       <c r="C69" s="31"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="18"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="18"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
@@ -2218,7 +2245,7 @@
       <c r="C79" s="27"/>
       <c r="D79">
         <f>SUM(C70:C79)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2301,7 +2328,7 @@
       <c r="B93" s="17"/>
       <c r="C93" s="32">
         <f>SUM(C14:C90)</f>
-        <v>36.5</v>
+        <v>38.5</v>
       </c>
       <c r="D93" s="13"/>
     </row>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\MDS\capstone\w2020-data599-capstone-projects-ubc-udl\personal-logs\nathan-smith\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0FD9BF-204F-4151-84F4-2CDA7FB98B60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06706E2C-8B39-4A91-BC81-4AD4F456FE28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -955,7 +955,21 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1552,7 +1566,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2205,9 +2219,15 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="18"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
@@ -2245,7 +2265,7 @@
       <c r="C79" s="27"/>
       <c r="D79">
         <f>SUM(C70:C79)</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2328,7 +2348,7 @@
       <c r="B93" s="17"/>
       <c r="C93" s="32">
         <f>SUM(C14:C90)</f>
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="D93" s="13"/>
     </row>
@@ -2381,156 +2401,166 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="30" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="29" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="28" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="26" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
+    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C31">
+    <cfRule type="expression" dxfId="26" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C57">
     <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="24" priority="38" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="22" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="21" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="19" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="18" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="17" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="14" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="13" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:B71 A73:B79">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:B71 A73:B75">
+    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:C86">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:C90">
     <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:B72">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
+  <conditionalFormatting sqref="A72:B72">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -5,18 +5,20 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\MDS\capstone\w2020-data599-capstone-projects-ubc-udl\personal-logs\nathan-smith\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06706E2C-8B39-4A91-BC81-4AD4F456FE28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1AA564-5002-4EAF-8D08-3309FEB67AA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
+    <sheet name="Week 2" sheetId="11" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$68</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -186,6 +188,15 @@
   </si>
   <si>
     <t>Update GitHub READMEs</t>
+  </si>
+  <si>
+    <t>Review InfluxDB docs, run UDL SkySpark example</t>
+  </si>
+  <si>
+    <t>Understand InfluxDB</t>
+  </si>
+  <si>
+    <t>Review InfluxDB docs to understand how streaming architecture would work</t>
   </si>
 </sst>
 </file>
@@ -955,7 +966,210 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1565,8 +1779,8 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2219,15 +2433,9 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
@@ -2265,7 +2473,7 @@
       <c r="C79" s="27"/>
       <c r="D79">
         <f>SUM(C70:C79)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2348,7 +2556,7 @@
       <c r="B93" s="17"/>
       <c r="C93" s="32">
         <f>SUM(C14:C90)</f>
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="D93" s="13"/>
     </row>
@@ -2401,166 +2609,944 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="32" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="31" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="30" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="28" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="26" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="23" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="21" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="20" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="19" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="16" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B71 A73:B79">
+    <cfRule type="expression" dxfId="44" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:B79">
+    <cfRule type="expression" dxfId="43" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:B75">
+    <cfRule type="expression" dxfId="42" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70:C75">
+    <cfRule type="expression" dxfId="41" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70:C79">
+    <cfRule type="expression" dxfId="40" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:B90">
+    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:C86">
+    <cfRule type="expression" dxfId="37" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81:C90">
+    <cfRule type="expression" dxfId="36" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:B86">
+    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="34" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="33" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB933529-DF40-425A-9B72-C839B1FA8955}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="34">
+        <f>D3</f>
+        <v>44326</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="25">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="18"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="20"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24">
+        <f>SUM(C15:C24)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="34">
+        <f>A14+1</f>
+        <v>44327</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="18"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="18"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="18"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="18"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="19"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="20"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35">
+        <f>SUM(C26:C35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="34">
+        <f>A25+1</f>
+        <v>44328</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="18"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="18"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="18"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="18"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="20"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46">
+        <f>SUM(C37:C46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="34">
+        <f>A36+1</f>
+        <v>44329</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="18"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="18"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="18"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="18"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="18"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="19"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="20"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="20"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="20"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57">
+        <f>SUM(C48:C57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="34">
+        <f>A47+1</f>
+        <v>44330</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="31"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="18"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="18"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="18"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="18"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="19"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68">
+        <f>SUM(C59:C68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="34">
+        <f>A58+1</f>
+        <v>44331</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="31"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="18"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="18"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="18"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="18"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="19"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="20"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="20"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79">
+        <f>SUM(C70:C79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="34">
+        <f>A69+1</f>
+        <v>44332</v>
+      </c>
+      <c r="B80" s="35"/>
+      <c r="C80" s="31"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="18"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="18"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="18"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="18"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="18"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="18"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="19"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="20"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="20"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="20"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90">
+        <f>SUM(C81:C90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="10"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="12"/>
+    </row>
+    <row r="93" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="17"/>
+      <c r="C93" s="32">
+        <f>SUM(C14:C90)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D93" s="13"/>
+    </row>
+    <row r="94" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="9"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+    </row>
+    <row r="95" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A95" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="22"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="22"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="9"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="23"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+    </row>
+    <row r="101" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A69:B69"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B24 A26:B35">
+    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C46">
+    <cfRule type="expression" dxfId="27" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B57">
+    <cfRule type="expression" dxfId="25" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C31">
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C57">
+    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C42">
+    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C24 C26:C35">
+    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="20" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B46">
+    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B42">
+    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B53">
+    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C64">
+    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C59:C68">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:B68">
     <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B71 A73:B75">
+  <conditionalFormatting sqref="A59:B64">
     <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A70:B79">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:B75">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:B72">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72:B72">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1AA564-5002-4EAF-8D08-3309FEB67AA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707D161C-0A4E-460D-9B7A-DEBE189E6669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -197,6 +197,24 @@
   </si>
   <si>
     <t>Review InfluxDB docs to understand how streaming architecture would work</t>
+  </si>
+  <si>
+    <t>Meeting with UDL to discuss InfluxDB/Telegraf</t>
+  </si>
+  <si>
+    <t>Client Meeting</t>
+  </si>
+  <si>
+    <t>Post-meeting internal discussion</t>
+  </si>
+  <si>
+    <t>Write-up meeting minutes</t>
+  </si>
+  <si>
+    <t>Working on getting InfluxDB and Telegraf running locally</t>
+  </si>
+  <si>
+    <t>Parsing Files</t>
   </si>
 </sst>
 </file>
@@ -2777,8 +2795,8 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2914,24 +2932,48 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="25">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="A19" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="27">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="27">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
@@ -2949,7 +2991,7 @@
       <c r="C24" s="27"/>
       <c r="D24">
         <f>SUM(C15:C24)</f>
-        <v>4.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3344,7 +3386,7 @@
       <c r="B93" s="17"/>
       <c r="C93" s="32">
         <f>SUM(C14:C90)</f>
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="D93" s="13"/>
     </row>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707D161C-0A4E-460D-9B7A-DEBE189E6669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94190982-F25D-488C-BD6F-131D29297007}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>Parsing Files</t>
+  </si>
+  <si>
+    <t>Logs and GitHub cleanup</t>
+  </si>
+  <si>
+    <t>Research how streaming anomaly detection would wrok with InfluxDB</t>
+  </si>
+  <si>
+    <t>InfluxDB Streaming</t>
+  </si>
+  <si>
+    <t>Stand-up and presentation run-through</t>
   </si>
 </sst>
 </file>
@@ -2796,7 +2808,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -3003,24 +3015,48 @@
       <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="18"/>
@@ -3053,7 +3089,7 @@
       <c r="C35" s="27"/>
       <c r="D35">
         <f>SUM(C26:C35)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3386,7 +3422,7 @@
       <c r="B93" s="17"/>
       <c r="C93" s="32">
         <f>SUM(C14:C90)</f>
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="D93" s="13"/>
     </row>
@@ -3444,152 +3480,152 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="27" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="25" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="20" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="19" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="13" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="8" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94190982-F25D-488C-BD6F-131D29297007}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0BF211-1C71-42E2-9A4C-BB7AF3C06B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$68</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$69</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="94">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -220,13 +220,94 @@
     <t>Logs and GitHub cleanup</t>
   </si>
   <si>
-    <t>Research how streaming anomaly detection would wrok with InfluxDB</t>
-  </si>
-  <si>
     <t>InfluxDB Streaming</t>
   </si>
   <si>
     <t>Stand-up and presentation run-through</t>
+  </si>
+  <si>
+    <t>Research how streaming anomaly detection would work with InfluxDB</t>
+  </si>
+  <si>
+    <t>Presentation (incl prep before)</t>
+  </si>
+  <si>
+    <t>Figure out and code a simple simulator in Python not reliant on InfluxDB</t>
+  </si>
+  <si>
+    <t>Streaming Simulation</t>
+  </si>
+  <si>
+    <t>Project file clean-up</t>
+  </si>
+  <si>
+    <t>Testing using telegraf reading data from InfluxDB</t>
+  </si>
+  <si>
+    <t>Extended stand-up to discuss where we're each at</t>
+  </si>
+  <si>
+    <t>Meeting with Ryan to discuss data parsing</t>
+  </si>
+  <si>
+    <t>Data parsing</t>
+  </si>
+  <si>
+    <t>Influxdb streaming and parsing</t>
+  </si>
+  <si>
+    <t>Data parsing and streaming</t>
+  </si>
+  <si>
+    <t>Setup sprint planning doc</t>
+  </si>
+  <si>
+    <t>Clean-up streaming research and PR files and discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand-up and sprint planning discussion </t>
+  </si>
+  <si>
+    <t>Parsing discussions/research</t>
+  </si>
+  <si>
+    <t>InfluxDB Parsing</t>
+  </si>
+  <si>
+    <t>Kanban board updates</t>
+  </si>
+  <si>
+    <t>Streaming system ppt slides for meeting</t>
+  </si>
+  <si>
+    <t>Sprint planning meeting</t>
+  </si>
+  <si>
+    <t>Meeting with client</t>
+  </si>
+  <si>
+    <t>Post-sprint meeting</t>
+  </si>
+  <si>
+    <t>Clean-up meeting minutes and streaming ppt for Jiachen to talk to EWS</t>
+  </si>
+  <si>
+    <t>Testing various InfluxDB streaming methods</t>
+  </si>
+  <si>
+    <t>Streaming parsing work</t>
+  </si>
+  <si>
+    <t>Dealing with python environment issues</t>
+  </si>
+  <si>
+    <t>IncluxDB Streaming</t>
+  </si>
+  <si>
+    <t>Work on weekly presentation</t>
+  </si>
+  <si>
+    <t>Upload OneDrive documents to GitHub with updated logs</t>
   </si>
 </sst>
 </file>
@@ -530,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -783,6 +864,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -830,7 +939,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -941,6 +1050,14 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="20" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -996,7 +1113,210 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="91">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1809,7 +2129,7 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
@@ -1905,11 +2225,11 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="34">
+      <c r="A14" s="36">
         <f>D3</f>
         <v>44319</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -2021,11 +2341,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="34">
+      <c r="A25" s="36">
         <f>A14+1</f>
         <v>44320</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2137,11 +2457,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="34">
+      <c r="A36" s="36">
         <f>A25+1</f>
         <v>44321</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -2249,11 +2569,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="34">
+      <c r="A47" s="36">
         <f>A36+1</f>
         <v>44322</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -2347,11 +2667,11 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="34">
+      <c r="A58" s="36">
         <f>A47+1</f>
         <v>44323</v>
       </c>
-      <c r="B58" s="35"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="31"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -2433,11 +2753,11 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="34">
+      <c r="A69" s="36">
         <f>A58+1</f>
         <v>44324</v>
       </c>
-      <c r="B69" s="35"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="31"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -2507,11 +2827,11 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="34">
+      <c r="A80" s="36">
         <f>A69+1</f>
         <v>44325</v>
       </c>
-      <c r="B80" s="35"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="31"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -2639,157 +2959,157 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="61" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="60" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="58" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="57" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="56" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="55" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="54" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="53" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="52" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="51" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="50" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="49" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="48" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="47" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="46" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="45" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="44" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="43" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="42" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="41" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="40" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="39" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="37" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="36" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="35" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="34" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="33" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="32" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2805,10 +3125,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2903,11 +3223,11 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="34">
+      <c r="A14" s="36">
         <f>D3</f>
         <v>44326</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -3007,11 +3327,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="34">
+      <c r="A25" s="36">
         <f>A14+1</f>
         <v>44327</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -3038,10 +3358,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="C28" s="25">
         <v>0.25</v>
@@ -3049,7 +3369,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>21</v>
@@ -3059,19 +3379,37 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="19"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
+      <c r="A32" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="26">
+        <v>4.25</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
@@ -3089,47 +3427,83 @@
       <c r="C35" s="27"/>
       <c r="D35">
         <f>SUM(C26:C35)</f>
-        <v>2.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="34">
+      <c r="A36" s="36">
         <f>A25+1</f>
         <v>44328</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="25">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="25">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="25">
+        <v>2</v>
+      </c>
       <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="19"/>
@@ -3153,145 +3527,253 @@
       <c r="C46" s="27"/>
       <c r="D46">
         <f>SUM(C37:C46)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="34">
+      <c r="A47" s="36">
         <f>A36+1</f>
         <v>44329</v>
       </c>
-      <c r="B47" s="35"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="25">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="18"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="18"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="19"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="26">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="20"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
+      <c r="A55" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="26">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="20"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-    </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="20"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57">
-        <f>SUM(C48:C57)</f>
-        <v>0</v>
+      <c r="A56" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="26">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="34">
+      <c r="A58" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="34">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <f>SUM(C48:C58)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="36">
         <f>A47+1</f>
         <v>44330</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="31"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="18"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="18"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="25">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="18"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="18"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="18"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="19"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
+      <c r="A65" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="25">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="20"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
+      <c r="A66" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="20"/>
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
     </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="20"/>
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
-      <c r="D68">
-        <f>SUM(C59:C68)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="34">
-        <f>A58+1</f>
+      <c r="A69" s="20"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69">
+        <f>SUM(C60:C69)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="36">
+        <f>A59+1</f>
         <v>44331</v>
       </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="31"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="18"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="31"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="18"/>
@@ -3319,41 +3801,41 @@
       <c r="C75" s="25"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="19"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="20"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="20"/>
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
     </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="20"/>
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
-      <c r="D79">
-        <f>SUM(C70:C79)</f>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="20"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80">
+        <f>SUM(C71:C80)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="34">
-        <f>A69+1</f>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="36">
+        <f>A70+1</f>
         <v>44332</v>
       </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="31"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="18"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="31"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="18"/>
@@ -3381,14 +3863,14 @@
       <c r="C86" s="25"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="19"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="20"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="20"/>
@@ -3399,50 +3881,50 @@
       <c r="A90" s="20"/>
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
-      <c r="D90">
-        <f>SUM(C81:C90)</f>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="20"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91">
+        <f>SUM(C82:C91)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-    </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="10"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="12"/>
-    </row>
-    <row r="93" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="17" t="s">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="32">
-        <f>SUM(C14:C90)</f>
-        <v>13.5</v>
-      </c>
-      <c r="D93" s="13"/>
-    </row>
-    <row r="94" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="9"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-    </row>
-    <row r="95" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A95" s="10" t="s">
+      <c r="B94" s="17"/>
+      <c r="C94" s="32">
+        <f>SUM(C14:C91)</f>
+        <v>48</v>
+      </c>
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="9"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+    </row>
+    <row r="96" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="11"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="22"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="22"/>
@@ -3450,182 +3932,332 @@
       <c r="C97" s="30"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="9"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
+      <c r="A98" s="22"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="23"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-    </row>
-    <row r="101" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+    </row>
+    <row r="102" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="59" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B24 A26:B35">
+    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C43:C46 C41">
+    <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B55 A58:B58">
+    <cfRule type="expression" dxfId="54" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C31">
+    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C55 C58">
+    <cfRule type="expression" dxfId="52" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C41">
+    <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C24 C26:C35">
+    <cfRule type="expression" dxfId="50" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
+    <cfRule type="expression" dxfId="48" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B39 A41:B41">
+    <cfRule type="expression" dxfId="47" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B53">
+    <cfRule type="expression" dxfId="46" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60 C62 C64:C65">
+    <cfRule type="expression" dxfId="45" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60 C62 C64:C69">
+    <cfRule type="expression" dxfId="44" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B60 A62:B62 A64:B69">
+    <cfRule type="expression" dxfId="43" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B60 A62:B62 A64:B65">
+    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B80">
+    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B76">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C76">
+    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C80">
+    <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:B91">
+    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
+    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C91">
+    <cfRule type="expression" dxfId="34" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:B87">
+    <cfRule type="expression" dxfId="33" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
     <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="0" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="28" priority="23" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
     <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="26" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C31">
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
     <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="24" priority="19" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="23" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="22" priority="27" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="21" priority="18" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="20" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="19" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70:B75">
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:B42">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:B40">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
     <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:B90">
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81:B86">
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
     <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="B58">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="A63:B63">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+  <conditionalFormatting sqref="C63">
     <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
+  <conditionalFormatting sqref="C63">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0BF211-1C71-42E2-9A4C-BB7AF3C06B39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A831F6BF-0991-4371-9C22-A56A9B1BBAB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
     <sheet name="Week 2" sheetId="11" r:id="rId2"/>
+    <sheet name="Week 3" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$69</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -301,13 +303,64 @@
     <t>Dealing with python environment issues</t>
   </si>
   <si>
-    <t>IncluxDB Streaming</t>
-  </si>
-  <si>
     <t>Work on weekly presentation</t>
   </si>
   <si>
     <t>Upload OneDrive documents to GitHub with updated logs</t>
+  </si>
+  <si>
+    <t>Client slack discussions on the parser and meetings Monday</t>
+  </si>
+  <si>
+    <t>Testing how to query from InfluxDB for model training</t>
+  </si>
+  <si>
+    <t>Build derivative docker image for Telegraf with Python installed</t>
+  </si>
+  <si>
+    <t>InfluxDB Queries</t>
+  </si>
+  <si>
+    <t>Test continuous Python script call from Telegraf</t>
+  </si>
+  <si>
+    <t>Purging tokens from Github</t>
+  </si>
+  <si>
+    <t>InfluxDB Streaming Framework</t>
+  </si>
+  <si>
+    <t>Discuss EDA with Ryan</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Setup meeting minutes for client meeting today and update Clubhouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Management </t>
+  </si>
+  <si>
+    <t>Meeting with UDL on anomaly detection and streaming methods</t>
+  </si>
+  <si>
+    <t>Post client meeting to discuss direction</t>
+  </si>
+  <si>
+    <t>Correspondance with UDL on Friday meeting with Technical Safety BC</t>
+  </si>
+  <si>
+    <t>Project Communication</t>
+  </si>
+  <si>
+    <t>Building code to query InfluxDB records with detection model</t>
+  </si>
+  <si>
+    <t>Building code to write to InfluxDB records for detection model</t>
+  </si>
+  <si>
+    <t>Adding code to github after tokens purged from repo</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1166,483 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="159">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2129,7 +2658,7 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A82" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
@@ -2959,157 +3488,157 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="90" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="89" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="88" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="87" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="86" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="85" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="84" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="83" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="82" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="81" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="80" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="79" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="78" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="77" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="76" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="75" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="74" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="73" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="72" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="71" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="70" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="69" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="68" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="67" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="66" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="65" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="64" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="63" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="62" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="61" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="60" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3127,8 +3656,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -3679,26 +4208,26 @@
         <v>64</v>
       </c>
       <c r="C60" s="25">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="18" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C61" s="25">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C62" s="25">
         <v>0.25</v>
@@ -3706,46 +4235,46 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="25">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="C64" s="25">
-        <v>0.5</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="25">
-        <v>2.75</v>
+      <c r="B65" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="26">
+        <v>0.75</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="26">
-        <v>0.5</v>
+      <c r="C66" s="27">
+        <v>0.25</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
@@ -3764,7 +4293,7 @@
       <c r="C69" s="27"/>
       <c r="D69">
         <f>SUM(C60:C69)</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3838,24 +4367,48 @@
       <c r="C81" s="31"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="18"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="18"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
+      <c r="A83" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="18"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
+      <c r="A84" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="18"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
+      <c r="A85" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="18"/>
@@ -3888,7 +4441,7 @@
       <c r="C91" s="27"/>
       <c r="D91">
         <f>SUM(C82:C91)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -3909,7 +4462,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="32">
         <f>SUM(C14:C91)</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D94" s="13"/>
     </row>
@@ -3962,301 +4515,1327 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="59" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
+    <cfRule type="expression" dxfId="124" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="123" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B55 A58:B58">
+    <cfRule type="expression" dxfId="122" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C31">
+    <cfRule type="expression" dxfId="121" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C55 C58">
+    <cfRule type="expression" dxfId="120" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C41">
+    <cfRule type="expression" dxfId="119" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C24 C26:C35">
+    <cfRule type="expression" dxfId="118" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="117" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
+    <cfRule type="expression" dxfId="116" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B39 A41:B41">
+    <cfRule type="expression" dxfId="115" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B53">
+    <cfRule type="expression" dxfId="114" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C65">
+    <cfRule type="expression" dxfId="113" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C69">
+    <cfRule type="expression" dxfId="112" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B69">
+    <cfRule type="expression" dxfId="111" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B65">
+    <cfRule type="expression" dxfId="110" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B80">
+    <cfRule type="expression" dxfId="109" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B76">
+    <cfRule type="expression" dxfId="108" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C76">
+    <cfRule type="expression" dxfId="107" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C80">
+    <cfRule type="expression" dxfId="106" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="105" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:B91">
+    <cfRule type="expression" dxfId="104" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
+    <cfRule type="expression" dxfId="103" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C91">
+    <cfRule type="expression" dxfId="102" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:B87">
+    <cfRule type="expression" dxfId="101" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="100" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="99" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="98" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="97" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="96" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="95" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="94" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="93" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="92" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="91" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="90" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:B42">
+    <cfRule type="expression" dxfId="89" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="88" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="87" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="86" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="85" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:B40">
+    <cfRule type="expression" dxfId="84" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="83" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="82" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="81" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="80" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="79" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="78" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="77" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="76" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="75" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="74" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="73" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="72" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="71" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="70" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="69" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="68" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="67" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="66" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="65" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="64" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81248D34-B6B9-4854-8289-D78F604F7C46}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="36">
+        <f>D3</f>
+        <v>44333</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="27">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="27">
+        <v>2.25</v>
+      </c>
+      <c r="D24">
+        <f>SUM(C15:C24)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="36">
+        <f>A14+1</f>
+        <v>44334</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="18"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="18"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="18"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="18"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="18"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="20"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35">
+        <f>SUM(C26:C35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="36">
+        <f>A25+1</f>
+        <v>44335</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="18"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="18"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="18"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="18"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="20"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46">
+        <f>SUM(C37:C46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="36">
+        <f>A36+1</f>
+        <v>44336</v>
+      </c>
+      <c r="B47" s="37"/>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="18"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="18"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="18"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="18"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="18"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="19"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="19"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="26"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="34"/>
+      <c r="D58">
+        <f>SUM(C48:C58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="36">
+        <f>A47+1</f>
+        <v>44337</v>
+      </c>
+      <c r="B59" s="37"/>
+      <c r="C59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="18"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="18"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="18"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="19"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="20"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69">
+        <f>SUM(C60:C69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="36">
+        <f>A59+1</f>
+        <v>44338</v>
+      </c>
+      <c r="B70" s="37"/>
+      <c r="C70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="18"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="18"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="18"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="18"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="19"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="20"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="20"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80">
+        <f>SUM(C71:C80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="36">
+        <f>A70+1</f>
+        <v>44339</v>
+      </c>
+      <c r="B81" s="37"/>
+      <c r="C81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="18"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="18"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="18"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="18"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="18"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="18"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="19"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="20"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="20"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="20"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91">
+        <f>SUM(C82:C91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="32">
+        <f>SUM(C14:C91)</f>
+        <v>10</v>
+      </c>
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="9"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+    </row>
+    <row r="96" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="22"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="22"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="9"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+    </row>
+    <row r="102" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A70:B70"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="63" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B24 A26:B35">
+    <cfRule type="expression" dxfId="62" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B31">
+    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C43:C46 C41">
+    <cfRule type="expression" dxfId="60" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="59" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B55 A58:B58">
+    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C31">
+    <cfRule type="expression" dxfId="57" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C55 C58">
     <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:B55 A58:B58">
-    <cfRule type="expression" dxfId="54" priority="50" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="52" priority="48" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="51" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="50" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="53" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
+    <cfRule type="expression" dxfId="52" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B39 A41:B41">
+    <cfRule type="expression" dxfId="51" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B53">
+    <cfRule type="expression" dxfId="50" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C65">
     <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
-    <cfRule type="expression" dxfId="48" priority="54" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="47" priority="53" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:B53">
+  <conditionalFormatting sqref="C60:C69">
+    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B69">
+    <cfRule type="expression" dxfId="47" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B65">
     <cfRule type="expression" dxfId="46" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60 C62 C64:C65">
-    <cfRule type="expression" dxfId="45" priority="43" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60 C62 C64:C69">
-    <cfRule type="expression" dxfId="44" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B60 A62:B62 A64:B69">
-    <cfRule type="expression" dxfId="43" priority="46" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B60 A62:B62 A64:B65">
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
+    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C80">
+    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="41" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:B91">
+    <cfRule type="expression" dxfId="40" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
     <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71:C80">
+  <conditionalFormatting sqref="C82:C91">
     <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:B91">
+  <conditionalFormatting sqref="A82:B87">
+    <cfRule type="expression" dxfId="37" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
     <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="34" priority="36" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="33" priority="37" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
     <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
+  <conditionalFormatting sqref="A37">
     <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="B37">
     <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37">
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
+  <conditionalFormatting sqref="A42:B42">
     <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="A42">
     <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="B42">
     <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="C40">
     <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:B42">
+  <conditionalFormatting sqref="C40">
     <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
+  <conditionalFormatting sqref="A40:B40">
     <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="A40">
     <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
+  <conditionalFormatting sqref="B40">
     <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
+  <conditionalFormatting sqref="A56:B57">
     <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40:B40">
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
     <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
     <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C62">
     <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C62">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
+  <conditionalFormatting sqref="A62:B62">
     <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A831F6BF-0991-4371-9C22-A56A9B1BBAB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178F82E5-13EB-4CB1-AD1C-A0FFAC95BBA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="125">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -361,6 +361,48 @@
   </si>
   <si>
     <t>Adding code to github after tokens purged from repo</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Going through repo and update all code to use environment variables for tokens</t>
+  </si>
+  <si>
+    <t>Internal Meetings / Code Review</t>
+  </si>
+  <si>
+    <t>Stand-up / discussion on PR / go over presentation</t>
+  </si>
+  <si>
+    <t>UBC Prof Meeting</t>
+  </si>
+  <si>
+    <t>UBC Meeting</t>
+  </si>
+  <si>
+    <t>Anomaly Detection Research</t>
+  </si>
+  <si>
+    <t>Parsing InfluxDB line protocol for predict method</t>
+  </si>
+  <si>
+    <t>Discuss anomaly detection algorithms and read paper</t>
+  </si>
+  <si>
+    <t>Extended stand-up discussion plan/project schedule</t>
+  </si>
+  <si>
+    <t>PR streaming framework code (putting it on hold for now)</t>
+  </si>
+  <si>
+    <t>Update docker files related to testing the InfluxDB streaming setup</t>
+  </si>
+  <si>
+    <t>Sprint planning doc prep and Clubhouse prep/clean-up</t>
+  </si>
+  <si>
+    <t>Work on week 4 status presentation</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1208,42 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="159">
+  <dxfs count="164">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3488,157 +3565,157 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="158" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="157" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="156" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="155" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="154" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="153" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="152" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="151" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="150" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="149" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="148" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="147" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="146" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="145" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="144" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="143" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="142" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="141" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="140" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="139" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="138" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="137" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="136" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="135" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="134" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="133" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="132" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="131" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="130" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="129" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="128" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3656,7 +3733,7 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
@@ -4515,322 +4592,322 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="127" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="126" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="125" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="124" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="123" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B55 A58:B58">
-    <cfRule type="expression" dxfId="122" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="121" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="120" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="119" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="118" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="117" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
-    <cfRule type="expression" dxfId="116" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="115" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="114" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="113" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="112" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="111" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="110" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="109" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="108" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="107" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="106" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="105" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="104" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="103" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="102" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="101" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="100" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="99" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="98" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="97" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="96" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="95" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="94" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="93" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="92" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="91" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="90" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="89" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="88" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="87" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="86" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="85" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="expression" dxfId="84" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="83" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="82" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="81" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="80" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="79" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="78" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="77" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="76" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="75" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="74" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="73" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="72" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="71" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="70" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="69" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="68" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="67" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="66" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="65" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="64" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4848,8 +4925,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -5078,41 +5155,77 @@
         <v>110</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C26" s="25">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+    <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="18"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
+      <c r="A32" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
@@ -5130,7 +5243,7 @@
       <c r="C35" s="27"/>
       <c r="D35">
         <f>SUM(C26:C35)</f>
-        <v>1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5142,35 +5255,71 @@
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="25">
+        <v>1</v>
+      </c>
       <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="19"/>
@@ -5194,7 +5343,7 @@
       <c r="C46" s="27"/>
       <c r="D46">
         <f>SUM(C37:C46)</f>
-        <v>0</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5468,7 +5617,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="32">
         <f>SUM(C14:C91)</f>
-        <v>10</v>
+        <v>25.75</v>
       </c>
       <c r="D94" s="13"/>
     </row>
@@ -5521,322 +5670,347 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="63" priority="64" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="62" priority="63" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="70" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B24 A26:B29 A31:B35">
+    <cfRule type="expression" dxfId="67" priority="69" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A31:B31">
+    <cfRule type="expression" dxfId="66" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="60" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="59" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B55 A58:B58">
-    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="57" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C29 C31">
+    <cfRule type="expression" dxfId="62" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="56" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="55" priority="55" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="54" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
+    <cfRule type="expression" dxfId="59" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="53" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
-    <cfRule type="expression" dxfId="52" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="51" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="50" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="49" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
+    <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B65">
+    <cfRule type="expression" dxfId="51" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B80">
+    <cfRule type="expression" dxfId="50" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B76">
+    <cfRule type="expression" dxfId="49" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C76">
+    <cfRule type="expression" dxfId="48" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C80">
     <cfRule type="expression" dxfId="47" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="46" priority="49" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B76">
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="46" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:B91">
+    <cfRule type="expression" dxfId="45" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
     <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="41" priority="36" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="40" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
+    <cfRule type="expression" dxfId="43" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:B87">
+    <cfRule type="expression" dxfId="42" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="40" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
     <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="37" priority="41" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
     <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="A37:B37">
     <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
     <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:B40">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
     <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="15" priority="15" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178F82E5-13EB-4CB1-AD1C-A0FFAC95BBA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FF1837-4E90-4404-827A-D6F8BB5A7F09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="136">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -403,6 +403,39 @@
   </si>
   <si>
     <t>Work on week 4 status presentation</t>
+  </si>
+  <si>
+    <t>Update logs and github</t>
+  </si>
+  <si>
+    <t>Review anomaly detection research PR</t>
+  </si>
+  <si>
+    <t>Presentation for Tech Safety BC meeting Friday</t>
+  </si>
+  <si>
+    <t>Project Documents/Client Meetings</t>
+  </si>
+  <si>
+    <t>Review EDA PR</t>
+  </si>
+  <si>
+    <t>Dashboard Research</t>
+  </si>
+  <si>
+    <t>Initial research on Grafana to understand dashboard level-of-effort</t>
+  </si>
+  <si>
+    <t>Helping UDL with data streaming parsing</t>
+  </si>
+  <si>
+    <t>Streaming Parsing support for UDL</t>
+  </si>
+  <si>
+    <t>Document Grafana research (sufficient understanding for now)</t>
+  </si>
+  <si>
+    <t>Discuss anomaly detection approach w/ Ryan and generate schematic</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1241,21 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="164">
+  <dxfs count="166">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2735,7 +2782,7 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
@@ -3565,157 +3612,157 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="163" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="162" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="161" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="160" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="159" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="158" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="157" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="156" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="155" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="154" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="153" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="152" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="151" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="150" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="149" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="148" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="147" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="146" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="145" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="144" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="143" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="142" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="141" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="140" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="139" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="138" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="137" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="136" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="135" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="134" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="133" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3733,7 +3780,7 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A58" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
@@ -4592,322 +4639,322 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="132" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="131" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="130" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="129" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="128" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B55 A58:B58">
-    <cfRule type="expression" dxfId="127" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="126" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="125" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="124" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="123" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="122" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
-    <cfRule type="expression" dxfId="121" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="120" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="119" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="118" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="117" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="116" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="115" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="114" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="113" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="112" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="111" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="110" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="109" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="108" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="107" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="106" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="105" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="104" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="103" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="102" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="101" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="100" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="99" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="98" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="97" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="96" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="95" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="94" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="93" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="92" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="91" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="90" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="expression" dxfId="89" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="88" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="87" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="86" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="85" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="84" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="83" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="82" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="81" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="80" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="79" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="78" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="77" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="76" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="75" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="74" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="73" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="72" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="71" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="70" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="69" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4925,8 +4972,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -5322,28 +5369,52 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="19"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="26">
+        <v>0.25</v>
+      </c>
       <c r="D43" s="33"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="20"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="27">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="20"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="27">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="20"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="27">
+        <v>0.5</v>
+      </c>
       <c r="D46">
         <f>SUM(C37:C46)</f>
-        <v>7.25</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5355,34 +5426,70 @@
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="25">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="18"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="18"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="25">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="25">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="25">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="19"/>
@@ -5410,7 +5517,7 @@
       <c r="C58" s="34"/>
       <c r="D58">
         <f>SUM(C48:C58)</f>
-        <v>0</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5617,7 +5724,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="32">
         <f>SUM(C14:C91)</f>
-        <v>25.75</v>
+        <v>38.25</v>
       </c>
       <c r="D94" s="13"/>
     </row>
@@ -5670,346 +5777,356 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="70" priority="72" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B24 A26:B29 A31:B35">
+    <cfRule type="expression" dxfId="69" priority="71" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A31:B31">
     <cfRule type="expression" dxfId="68" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B24 A26:B29 A31:B35">
-    <cfRule type="expression" dxfId="67" priority="69" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="66" priority="68" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
+    <cfRule type="expression" dxfId="67" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="66" priority="69" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B55 A58:B58">
     <cfRule type="expression" dxfId="65" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
+  <conditionalFormatting sqref="C26:C29 C31">
     <cfRule type="expression" dxfId="64" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:B55 A58:B58">
+  <conditionalFormatting sqref="C48:C55 C58">
     <cfRule type="expression" dxfId="63" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="62" priority="65" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="61" priority="58" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="60" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
+    <cfRule type="expression" dxfId="61" priority="68" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="60" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B39 A43:B43 A41:B41 A45:B46 A44">
     <cfRule type="expression" dxfId="59" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="58" priority="57" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
-    <cfRule type="expression" dxfId="57" priority="64" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="56" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="55" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="54" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="51" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="50" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="49" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="48" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
+    <cfRule type="expression" dxfId="49" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="48" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:B91">
     <cfRule type="expression" dxfId="47" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="46" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:B91">
+  <conditionalFormatting sqref="C82:C87">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C91">
     <cfRule type="expression" dxfId="45" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C91">
+  <conditionalFormatting sqref="A82:B87">
+    <cfRule type="expression" dxfId="44" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
     <cfRule type="expression" dxfId="43" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="42" priority="47" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="40" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="41" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="40" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
     <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
+  <conditionalFormatting sqref="B32">
     <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A37:B37">
     <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+  <conditionalFormatting sqref="A37">
     <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37">
+  <conditionalFormatting sqref="B37">
     <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" dxfId="34" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="A42:B42">
     <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
+  <conditionalFormatting sqref="A42">
     <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:B42">
+  <conditionalFormatting sqref="B42">
     <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
+  <conditionalFormatting sqref="C40">
     <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
+  <conditionalFormatting sqref="C40">
     <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
+  <conditionalFormatting sqref="A40">
     <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
+  <conditionalFormatting sqref="A40">
     <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="20" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="16" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="15" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+  <conditionalFormatting sqref="B44">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FF1837-4E90-4404-827A-D6F8BB5A7F09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBFEFC9-6188-46C7-8360-14F2467D43B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="151">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -436,6 +436,51 @@
   </si>
   <si>
     <t>Discuss anomaly detection approach w/ Ryan and generate schematic</t>
+  </si>
+  <si>
+    <t>Update PowerPoint for meeting with TechSafety BC</t>
+  </si>
+  <si>
+    <t>Anomaly Detection Model</t>
+  </si>
+  <si>
+    <t>Anomaly detection model discussions</t>
+  </si>
+  <si>
+    <t>Meeting with TechSafetyBC</t>
+  </si>
+  <si>
+    <t>Post meeting discussion with UDL and discussionon next steps</t>
+  </si>
+  <si>
+    <t>Client Meetings / Data Access</t>
+  </si>
+  <si>
+    <t>Go over with Ryan how to start downloading data from SkySpark manually</t>
+  </si>
+  <si>
+    <t>Data Access</t>
+  </si>
+  <si>
+    <t>Meeting with Scott to discuss proposed method</t>
+  </si>
+  <si>
+    <t>Post meeting discussion</t>
+  </si>
+  <si>
+    <t>Internal Meeting</t>
+  </si>
+  <si>
+    <t>Figuring out a way to easily view and label anomalies</t>
+  </si>
+  <si>
+    <t>Anomaly Labelling</t>
+  </si>
+  <si>
+    <t>Built a Shiny app to support labelling anomalies</t>
+  </si>
+  <si>
+    <t>Update Week 4 Status Presentation</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1286,28 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="166">
+  <dxfs count="169">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2782,7 +2848,7 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
@@ -3612,157 +3678,157 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="165" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="164" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="163" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="162" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="161" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="160" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="159" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="158" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="157" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="156" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="155" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="154" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="153" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="152" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="151" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="150" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="149" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="148" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="147" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="146" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="145" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="144" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="143" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="142" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="141" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="140" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="139" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="138" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="137" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="136" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="135" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3780,7 +3846,7 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
@@ -4639,322 +4705,322 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="134" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="133" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="132" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="131" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="130" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B55 A58:B58">
-    <cfRule type="expression" dxfId="129" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="128" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="127" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="126" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="125" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="124" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
-    <cfRule type="expression" dxfId="123" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="122" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="121" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="120" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="119" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="118" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="117" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="116" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="115" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="114" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="113" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="112" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="111" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="110" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="109" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="108" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="107" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="106" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="105" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="104" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="103" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="102" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="101" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="100" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="99" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="98" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="97" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="96" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="95" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="94" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="93" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="92" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="expression" dxfId="91" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="90" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="89" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="88" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="87" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="86" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="85" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="84" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="83" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="82" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="81" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="80" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="79" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="78" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="77" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="76" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="75" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="74" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="73" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="72" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="71" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4973,7 +5039,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -5492,9 +5558,15 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="19"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="19"/>
@@ -5517,7 +5589,7 @@
       <c r="C58" s="34"/>
       <c r="D58">
         <f>SUM(C48:C58)</f>
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5529,44 +5601,92 @@
       <c r="C59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="18"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="18"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="18"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="25">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="18"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="19"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
+      <c r="A65" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="26">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="20"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
+      <c r="A66" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="27">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="20"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
+      <c r="A67" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" s="27">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="20"/>
@@ -5579,7 +5699,7 @@
       <c r="C69" s="27"/>
       <c r="D69">
         <f>SUM(C60:C69)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5591,14 +5711,26 @@
       <c r="C70" s="31"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="18"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="25">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="18"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
@@ -5641,7 +5773,7 @@
       <c r="C80" s="27"/>
       <c r="D80">
         <f>SUM(C71:C80)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5724,7 +5856,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="32">
         <f>SUM(C14:C91)</f>
-        <v>38.25</v>
+        <v>57.75</v>
       </c>
       <c r="D94" s="13"/>
     </row>
@@ -5777,357 +5909,372 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="70" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B29 A31:B35">
-    <cfRule type="expression" dxfId="69" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="68" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="67" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="66" priority="69" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:B55 A58:B58">
-    <cfRule type="expression" dxfId="65" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="73" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B53 A58:B58 A55:B55">
+    <cfRule type="expression" dxfId="68" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="64" priority="67" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="63" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="71" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53 C58 C55">
+    <cfRule type="expression" dxfId="66" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="62" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="61" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="60" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B43 A41:B41 A45:B46 A44">
-    <cfRule type="expression" dxfId="59" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="58" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="57" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="56" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="53" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="52" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="51" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="49" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="48" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="47" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="45" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="44" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="45" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="44" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
     <cfRule type="expression" dxfId="43" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="A32">
     <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="41" priority="43" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="40" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="37" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="34" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="32" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="31" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
     <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="25" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
     <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
     <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="19" priority="19" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
     <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="17" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
     <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C62">
     <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C62">
     <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
+  <conditionalFormatting sqref="A62:B62">
     <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
+  <conditionalFormatting sqref="A30:B30">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
     <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
+  <conditionalFormatting sqref="B40">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B54">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B54">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBFEFC9-6188-46C7-8360-14F2467D43B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3865EC-4415-493A-A079-511F8BDD753A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="152">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Update Week 4 Status Presentation</t>
+  </si>
+  <si>
+    <t>Anomaly labelling</t>
   </si>
 </sst>
 </file>
@@ -5038,8 +5041,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -5785,9 +5788,15 @@
       <c r="C81" s="31"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="18"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C82" s="25">
+        <v>7</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="18"/>
@@ -5835,7 +5844,7 @@
       <c r="C91" s="27"/>
       <c r="D91">
         <f>SUM(C82:C91)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -5856,7 +5865,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="32">
         <f>SUM(C14:C91)</f>
-        <v>57.75</v>
+        <v>64.75</v>
       </c>
       <c r="D94" s="13"/>
     </row>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\MDS\capstone\w2020-data599-capstone-projects-ubc-udl\personal-logs\nathan-smith\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3865EC-4415-493A-A079-511F8BDD753A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA680BB3-3D27-4F84-9215-4356FBE8F684}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="153">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Anomaly labelling</t>
+  </si>
+  <si>
+    <t>UBC Meeting / Model Selection</t>
   </si>
 </sst>
 </file>
@@ -2851,8 +2854,8 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -3849,8 +3852,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -5041,8 +5044,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -5663,7 +5666,7 @@
         <v>144</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C65" s="26">
         <v>0.75</v>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\MDS\capstone\w2020-data599-capstone-projects-ubc-udl\personal-logs\nathan-smith\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA680BB3-3D27-4F84-9215-4356FBE8F684}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79871AB3-DB45-42FE-8754-0A079A9956F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
     <sheet name="Week 2" sheetId="11" r:id="rId2"/>
     <sheet name="Week 3" sheetId="12" r:id="rId3"/>
+    <sheet name="Week 4" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$69</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="160">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -487,6 +489,27 @@
   </si>
   <si>
     <t>UBC Meeting / Model Selection</t>
+  </si>
+  <si>
+    <t>Update anomaly labelling files</t>
+  </si>
+  <si>
+    <t>Anomally Labelling</t>
+  </si>
+  <si>
+    <t>Stand-up / meeting to discuss model building</t>
+  </si>
+  <si>
+    <t>Sketch out anomaly model components and hand-off streaming-frameworks code to Ryan</t>
+  </si>
+  <si>
+    <t>Build Model</t>
+  </si>
+  <si>
+    <t>Write email to UDL/EWS on anomaly label questions</t>
+  </si>
+  <si>
+    <t>Repo clean-up</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1141,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1245,6 +1268,23 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1292,7 +1332,525 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="169">
+  <dxfs count="243">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3684,157 +4242,157 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="168" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="167" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="166" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="165" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="164" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="163" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="162" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="161" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="160" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="159" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="158" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="157" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="156" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="155" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="154" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="153" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="152" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="151" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="150" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="149" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="148" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="147" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="146" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="145" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="144" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="143" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="142" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="141" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="140" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="139" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="138" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4711,322 +5269,322 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="137" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="136" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="135" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="134" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="133" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B55 A58:B58">
-    <cfRule type="expression" dxfId="132" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="131" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="130" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="129" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="128" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="127" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
-    <cfRule type="expression" dxfId="126" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="125" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="124" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="123" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="122" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="121" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="120" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="119" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="118" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="117" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="116" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="115" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="114" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="113" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="112" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="111" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="110" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="109" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="108" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="107" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="106" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="105" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="104" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="103" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="102" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="101" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="100" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="99" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="98" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="97" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="96" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="95" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="expression" dxfId="94" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="93" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="92" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="91" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="90" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="89" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="88" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="87" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="86" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="85" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="84" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="83" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="82" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="81" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="80" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="79" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="78" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="77" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="76" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="75" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="74" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5044,8 +5602,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -5921,247 +6479,1263 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="73" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B29 A31:B35">
-    <cfRule type="expression" dxfId="72" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="71" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="69" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53 A58:B58 A55:B55">
-    <cfRule type="expression" dxfId="68" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="67" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="66" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="64" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B43 A41:B41 A45:B46 A44">
-    <cfRule type="expression" dxfId="62" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="61" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="60" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="59" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="58" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="57" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="56" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="55" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="54" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="51" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="50" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="49" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="48" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="47" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="45" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="44" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="43" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="40" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="38" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="37" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="35" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="34" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="98" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="97" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="96" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="95" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="94" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="93" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="92" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="91" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="90" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="89" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="88" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="87" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="86" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="85" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="84" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="83" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="82" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="81" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="80" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="79" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="78" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B54">
+    <cfRule type="expression" dxfId="77" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="76" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="75" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B54">
+    <cfRule type="expression" dxfId="74" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C8197E-8B8C-4E4D-AEAB-5EA751770D9F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="36">
+        <f>D3</f>
+        <v>44340</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="20"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24">
+        <f>SUM(C15:C24)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="36">
+        <f>A14+1</f>
+        <v>44341</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="18"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="18"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="18"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="18"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="18"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="20"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35">
+        <f>SUM(C26:C35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="36">
+        <f>A25+1</f>
+        <v>44342</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="18"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="18"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="18"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="18"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="20"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46">
+        <f>SUM(C37:C46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="36">
+        <f>A36+1</f>
+        <v>44343</v>
+      </c>
+      <c r="B47" s="37"/>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="18"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="18"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="18"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="18"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="18"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="18"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="19"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="26"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="34"/>
+      <c r="D58">
+        <f>SUM(C48:C58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="36">
+        <f>A47+1</f>
+        <v>44344</v>
+      </c>
+      <c r="B59" s="37"/>
+      <c r="C59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="18"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="18"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="18"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="19"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="20"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69">
+        <f>SUM(C60:C69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="36">
+        <f>A59+1</f>
+        <v>44345</v>
+      </c>
+      <c r="B70" s="37"/>
+      <c r="C70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="18"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="18"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="18"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="18"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="19"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="20"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="20"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80">
+        <f>SUM(C71:C80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="36">
+        <f>A70+1</f>
+        <v>44346</v>
+      </c>
+      <c r="B81" s="37"/>
+      <c r="C81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="18"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="18"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="18"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="18"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="18"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="18"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="19"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="20"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="20"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="20"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91">
+        <f>SUM(C82:C91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="32">
+        <f>SUM(C14:C91)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="9"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+    </row>
+    <row r="96" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="40"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="22"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="22"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="9"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+    </row>
+    <row r="102" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A70:B70"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B24 A26:B29 A31:B35">
+    <cfRule type="expression" dxfId="72" priority="73" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A31:B31">
+    <cfRule type="expression" dxfId="71" priority="72" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C43:C46 C41">
+    <cfRule type="expression" dxfId="70" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="69" priority="71" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B53 A58:B58 A55:B55">
+    <cfRule type="expression" dxfId="68" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C29 C31">
+    <cfRule type="expression" dxfId="67" priority="69" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53 C58 C55">
+    <cfRule type="expression" dxfId="66" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C41">
+    <cfRule type="expression" dxfId="65" priority="65" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
+    <cfRule type="expression" dxfId="64" priority="70" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B39 A43:B43 A41:B41 A45:B46 A44">
+    <cfRule type="expression" dxfId="62" priority="68" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:B39 A41:B41">
+    <cfRule type="expression" dxfId="61" priority="67" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B53">
+    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C65">
+    <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C69">
+    <cfRule type="expression" dxfId="58" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B69">
+    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B65">
+    <cfRule type="expression" dxfId="56" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B80">
+    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B76">
+    <cfRule type="expression" dxfId="54" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C76">
+    <cfRule type="expression" dxfId="53" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C80">
+    <cfRule type="expression" dxfId="52" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="51" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:B91">
+    <cfRule type="expression" dxfId="50" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
+    <cfRule type="expression" dxfId="49" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C91">
+    <cfRule type="expression" dxfId="48" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:B87">
+    <cfRule type="expression" dxfId="47" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="46" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="45" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="36" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:B42">
+    <cfRule type="expression" dxfId="35" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3865EC-4415-493A-A079-511F8BDD753A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B52A4AD-A32D-4F27-B427-0C8FAA34F36D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
     <sheet name="Week 2" sheetId="11" r:id="rId2"/>
     <sheet name="Week 3" sheetId="12" r:id="rId3"/>
+    <sheet name="Week 4" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$69</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="192">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -484,6 +486,126 @@
   </si>
   <si>
     <t>Anomaly labelling</t>
+  </si>
+  <si>
+    <t>UBC Meeting / Model Selection</t>
+  </si>
+  <si>
+    <t>Update anomaly labelling files</t>
+  </si>
+  <si>
+    <t>Anomally Labelling</t>
+  </si>
+  <si>
+    <t>Stand-up / meeting to discuss model building</t>
+  </si>
+  <si>
+    <t>Sketch out anomaly model components and hand-off streaming-frameworks code to Ryan</t>
+  </si>
+  <si>
+    <t>Build Model</t>
+  </si>
+  <si>
+    <t>Write email to UDL/EWS on anomaly label questions</t>
+  </si>
+  <si>
+    <t>Repo clean-up</t>
+  </si>
+  <si>
+    <t>Project Documents/Project Management</t>
+  </si>
+  <si>
+    <t>Summarize weekly time/tasks (not previously done)</t>
+  </si>
+  <si>
+    <t>Update status presentation</t>
+  </si>
+  <si>
+    <t>Discuss model pipeline with Ryan</t>
+  </si>
+  <si>
+    <t>Discuss model pipeline with Mitch</t>
+  </si>
+  <si>
+    <t>Model Pipeline</t>
+  </si>
+  <si>
+    <t>Discuss data access and anomaly labels with UDL</t>
+  </si>
+  <si>
+    <t>Data Access/Anomally Labelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on mid-project status presentation </t>
+  </si>
+  <si>
+    <t>Stand-up and go over presentation</t>
+  </si>
+  <si>
+    <t>PR review for LSTM model</t>
+  </si>
+  <si>
+    <t>Meeting with UBC profs</t>
+  </si>
+  <si>
+    <t>Post-meeting team discussion</t>
+  </si>
+  <si>
+    <t>PR discussion with Mitch</t>
+  </si>
+  <si>
+    <t>Preparing variations on labelled data</t>
+  </si>
+  <si>
+    <t>Message UBC Profs on labelled data plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review cleaning pipeline code </t>
+  </si>
+  <si>
+    <t>Emailing/messaging UDL/EWS</t>
+  </si>
+  <si>
+    <t>Get sprint planning doc ready and clean-up Clubhouse</t>
+  </si>
+  <si>
+    <t>Work on status presentation</t>
+  </si>
+  <si>
+    <t>Messaging with Jiachen</t>
+  </si>
+  <si>
+    <t>Discussions with Profs/TAs on approach study/modelling</t>
+  </si>
+  <si>
+    <t>Modelling Approach</t>
+  </si>
+  <si>
+    <t>Modelling discussions with Ryan/Mitch</t>
+  </si>
+  <si>
+    <t>File structure for model package</t>
+  </si>
+  <si>
+    <t>Model Pipeline / Project Management</t>
+  </si>
+  <si>
+    <t>PR reviews for LSTM model and for cleaning pipeline</t>
+  </si>
+  <si>
+    <t>Testing spectral-residual transormations/discuss with TA</t>
+  </si>
+  <si>
+    <t>Working with Jiachen on streaming parsing</t>
+  </si>
+  <si>
+    <t>Parsing</t>
+  </si>
+  <si>
+    <t>Post-sprint planning meeting</t>
+  </si>
+  <si>
+    <t>Code discussion with Ryan</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1237,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1234,6 +1356,23 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1289,7 +1428,588 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="169">
+  <dxfs count="252">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2851,8 +3571,8 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -2947,11 +3667,11 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="36">
+      <c r="A14" s="41">
         <f>D3</f>
         <v>44319</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -3063,11 +3783,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="36">
+      <c r="A25" s="41">
         <f>A14+1</f>
         <v>44320</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -3179,11 +3899,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="36">
+      <c r="A36" s="41">
         <f>A25+1</f>
         <v>44321</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -3291,11 +4011,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="36">
+      <c r="A47" s="41">
         <f>A36+1</f>
         <v>44322</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -3389,11 +4109,11 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="36">
+      <c r="A58" s="41">
         <f>A47+1</f>
         <v>44323</v>
       </c>
-      <c r="B58" s="37"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="31"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -3475,11 +4195,11 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="36">
+      <c r="A69" s="41">
         <f>A58+1</f>
         <v>44324</v>
       </c>
-      <c r="B69" s="37"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="31"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -3549,11 +4269,11 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="36">
+      <c r="A80" s="41">
         <f>A69+1</f>
         <v>44325</v>
       </c>
-      <c r="B80" s="37"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="31"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -3681,157 +4401,157 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="168" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="167" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="166" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="165" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="164" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="163" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="162" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="161" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="160" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="159" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="158" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="157" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="156" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="155" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="154" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="153" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="152" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="151" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="150" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="149" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="148" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="147" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="146" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="145" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="144" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="143" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="142" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="141" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="140" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="139" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="138" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3849,8 +4569,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -3945,11 +4665,11 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="36">
+      <c r="A14" s="41">
         <f>D3</f>
         <v>44326</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -4049,11 +4769,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="36">
+      <c r="A25" s="41">
         <f>A14+1</f>
         <v>44327</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -4153,11 +4873,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="36">
+      <c r="A36" s="41">
         <f>A25+1</f>
         <v>44328</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -4253,11 +4973,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="36">
+      <c r="A47" s="41">
         <f>A36+1</f>
         <v>44329</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -4386,11 +5106,11 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="36">
+      <c r="A59" s="41">
         <f>A47+1</f>
         <v>44330</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -4490,11 +5210,11 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="36">
+      <c r="A70" s="41">
         <f>A59+1</f>
         <v>44331</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="31"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -4552,11 +5272,11 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="36">
+      <c r="A81" s="41">
         <f>A70+1</f>
         <v>44332</v>
       </c>
-      <c r="B81" s="37"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="31"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -4708,322 +5428,322 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="137" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="136" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="135" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="134" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="133" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B55 A58:B58">
-    <cfRule type="expression" dxfId="132" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="131" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="130" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="129" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="128" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="127" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
-    <cfRule type="expression" dxfId="126" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="125" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="124" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="123" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="122" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="121" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="120" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="119" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="118" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="117" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="116" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="115" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="114" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="113" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="112" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="111" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="110" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="109" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="108" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="107" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="106" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="105" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="104" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="103" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="102" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="101" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="100" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="99" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="98" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="97" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="96" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="95" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="expression" dxfId="94" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="93" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="92" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="91" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="90" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="89" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="88" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="87" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="86" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="85" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="84" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="83" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="82" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="81" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="80" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="79" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="78" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="77" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="76" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="75" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="74" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5041,8 +5761,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -5137,11 +5857,11 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="36">
+      <c r="A14" s="41">
         <f>D3</f>
         <v>44333</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -5259,11 +5979,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="36">
+      <c r="A25" s="41">
         <f>A14+1</f>
         <v>44334</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -5363,11 +6083,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="36">
+      <c r="A36" s="41">
         <f>A25+1</f>
         <v>44335</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -5487,11 +6207,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="36">
+      <c r="A47" s="41">
         <f>A36+1</f>
         <v>44336</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -5596,11 +6316,11 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="36">
+      <c r="A59" s="41">
         <f>A47+1</f>
         <v>44337</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -5663,7 +6383,7 @@
         <v>144</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="C65" s="26">
         <v>0.75</v>
@@ -5706,11 +6426,11 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="36">
+      <c r="A70" s="41">
         <f>A59+1</f>
         <v>44338</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="31"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -5780,11 +6500,11 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="36">
+      <c r="A81" s="41">
         <f>A70+1</f>
         <v>44339</v>
       </c>
-      <c r="B81" s="37"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="31"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -5918,372 +6638,1613 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="73" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B29 A31:B35">
-    <cfRule type="expression" dxfId="72" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="71" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="70" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="69" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53 A58:B58 A55:B55">
-    <cfRule type="expression" dxfId="68" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="67" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="66" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="64" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B43 A41:B41 A45:B46 A44">
-    <cfRule type="expression" dxfId="62" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="61" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="60" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="59" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="58" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
+    <cfRule type="expression" dxfId="140" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B65">
+    <cfRule type="expression" dxfId="139" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B80">
+    <cfRule type="expression" dxfId="138" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B76">
+    <cfRule type="expression" dxfId="137" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C76">
+    <cfRule type="expression" dxfId="136" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C80">
+    <cfRule type="expression" dxfId="135" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="134" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:B91">
+    <cfRule type="expression" dxfId="133" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
+    <cfRule type="expression" dxfId="132" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C91">
+    <cfRule type="expression" dxfId="131" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:B87">
+    <cfRule type="expression" dxfId="130" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="129" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="128" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="127" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="126" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="125" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="124" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="123" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="122" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="121" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="120" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="119" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:B42">
+    <cfRule type="expression" dxfId="118" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="117" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="116" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="115" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="114" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="113" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="112" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="111" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="110" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="109" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="108" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="107" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="106" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="105" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="104" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="103" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="102" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="101" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="100" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="99" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="98" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="97" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="96" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="95" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="94" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="93" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="92" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="91" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="90" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="89" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="88" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="87" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B54">
+    <cfRule type="expression" dxfId="86" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="85" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="84" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54:B54">
+    <cfRule type="expression" dxfId="83" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C8197E-8B8C-4E4D-AEAB-5EA751770D9F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="41">
+        <f>D3</f>
+        <v>44340</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="20"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24">
+        <f>SUM(C15:C24)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <f>A14+1</f>
+        <v>44341</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="27">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="27">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="20"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35">
+        <f>SUM(C26:C35)</f>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="41">
+        <f>A25+1</f>
+        <v>44342</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="25">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="27">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="27">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <f>SUM(C37:C46)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="41">
+        <f>A36+1</f>
+        <v>44343</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="19"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="26"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="34"/>
+      <c r="D58">
+        <f>SUM(C48:C58)</f>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="41">
+        <f>A47+1</f>
+        <v>44344</v>
+      </c>
+      <c r="B59" s="42"/>
+      <c r="C59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="18"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="18"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="18"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="19"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="20"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69">
+        <f>SUM(C60:C69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="41">
+        <f>A59+1</f>
+        <v>44345</v>
+      </c>
+      <c r="B70" s="42"/>
+      <c r="C70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="18"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="18"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="18"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="18"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="19"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="20"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="20"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80">
+        <f>SUM(C71:C80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="41">
+        <f>A70+1</f>
+        <v>44346</v>
+      </c>
+      <c r="B81" s="42"/>
+      <c r="C81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="18"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="18"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="18"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="18"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="18"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="18"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="19"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="20"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="20"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="20"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91">
+        <f>SUM(C82:C91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="32">
+        <f>SUM(C14:C91)</f>
+        <v>33.5</v>
+      </c>
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="9"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+    </row>
+    <row r="96" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="22"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="22"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="9"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+    </row>
+    <row r="102" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A70:B70"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="82" priority="86" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A15:B24 A31:B35">
+    <cfRule type="expression" dxfId="81" priority="85" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A31:B31">
+    <cfRule type="expression" dxfId="80" priority="84" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C43:C46 C41">
+    <cfRule type="expression" dxfId="79" priority="78" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="78" priority="83" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58 A55:B55 A48:B53">
+    <cfRule type="expression" dxfId="77" priority="76" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C29 C31">
+    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53 C58 C55">
+    <cfRule type="expression" dxfId="75" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C41">
+    <cfRule type="expression" dxfId="74" priority="77" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
+    <cfRule type="expression" dxfId="73" priority="82" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="72" priority="73" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:B39 A43:B43 A41:B41 A46:B46 A38 A44:A45">
+    <cfRule type="expression" dxfId="71" priority="80" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:B39 A41:B41 A38">
+    <cfRule type="expression" dxfId="70" priority="79" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B53">
+    <cfRule type="expression" dxfId="69" priority="75" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C65">
+    <cfRule type="expression" dxfId="68" priority="69" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C69">
+    <cfRule type="expression" dxfId="67" priority="70" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B69">
+    <cfRule type="expression" dxfId="66" priority="72" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B65">
+    <cfRule type="expression" dxfId="65" priority="71" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B80">
+    <cfRule type="expression" dxfId="64" priority="68" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B76">
+    <cfRule type="expression" dxfId="63" priority="67" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C76">
+    <cfRule type="expression" dxfId="62" priority="65" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C80">
+    <cfRule type="expression" dxfId="61" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="60" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82:B91">
+    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
+    <cfRule type="expression" dxfId="58" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C91">
     <cfRule type="expression" dxfId="57" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="56" priority="61" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="55" priority="58" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="54" priority="57" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="53" priority="55" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71:C80">
+  <conditionalFormatting sqref="A82:B87">
+    <cfRule type="expression" dxfId="56" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="55" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="54" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="53" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
     <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="51" priority="48" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:B91">
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="51" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
     <cfRule type="expression" dxfId="50" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="49" priority="51" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C91">
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="49" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
     <cfRule type="expression" dxfId="48" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="47" priority="53" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="47" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" dxfId="45" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="44" priority="47" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="43" priority="46" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+  <conditionalFormatting sqref="A42:B42">
+    <cfRule type="expression" dxfId="44" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="42" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="41" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="40" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="39" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="38" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="37" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="35" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="34" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="33" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="30" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="29" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="26" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="40" priority="43" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="39" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="38" priority="41" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="37" priority="40" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="35" priority="38" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="34" priority="37" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="28" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+  <conditionalFormatting sqref="B44">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B45">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B45">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:B54">
+  <conditionalFormatting sqref="B45">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B52A4AD-A32D-4F27-B427-0C8FAA34F36D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D259CEB-B223-4AAD-8BCA-6A03FDDEAB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="203">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -606,6 +606,39 @@
   </si>
   <si>
     <t>Code discussion with Ryan</t>
+  </si>
+  <si>
+    <t>Commit various project management docs to github and setup minutes for Monday</t>
+  </si>
+  <si>
+    <t>PR review on model pipeline</t>
+  </si>
+  <si>
+    <t>Discuss spectral residual transformation with Debangsha</t>
+  </si>
+  <si>
+    <t>Final Report</t>
+  </si>
+  <si>
+    <t>Start report template (waiting on code) and discuss report with Ryan</t>
+  </si>
+  <si>
+    <t>Custom transformer class for spectral residual code</t>
+  </si>
+  <si>
+    <t>Discuss preliminary model results and results template notebook</t>
+  </si>
+  <si>
+    <t>Model Results</t>
+  </si>
+  <si>
+    <t>Modelling</t>
+  </si>
+  <si>
+    <t>Researching various LSTM architectures</t>
+  </si>
+  <si>
+    <t>Researching various LSTM architectures (incl discussion with Ryan)</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1461,49 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="252">
+  <dxfs count="258">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4401,157 +4476,157 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="251" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="250" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="249" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="248" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="247" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="246" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="245" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="244" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="243" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="242" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="241" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="240" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="239" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="238" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="237" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="236" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="235" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="234" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="233" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="232" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="231" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="230" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="229" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="228" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="227" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="226" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="225" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="224" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="223" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="222" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="221" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5428,322 +5503,322 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="220" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="219" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="218" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="217" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="216" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B55 A58:B58">
-    <cfRule type="expression" dxfId="215" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="214" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="213" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="212" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="211" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="210" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
-    <cfRule type="expression" dxfId="209" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="208" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="207" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="206" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="205" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="204" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="203" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="202" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="201" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="200" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="199" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="198" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="197" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="196" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="195" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="194" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="193" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="192" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="191" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="190" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="189" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="188" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="187" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="186" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="185" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="184" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="183" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="182" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="181" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="180" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="179" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="178" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="expression" dxfId="177" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="176" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="175" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="174" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="173" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="172" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="171" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="170" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="169" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="168" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="167" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="166" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="165" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="164" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="163" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="162" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="161" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="160" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="159" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="158" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="157" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6638,372 +6713,372 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="156" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B29 A31:B35">
-    <cfRule type="expression" dxfId="155" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="154" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="153" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="152" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53 A58:B58 A55:B55">
-    <cfRule type="expression" dxfId="151" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="150" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="149" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="148" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="147" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="146" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B43 A41:B41 A45:B46 A44">
-    <cfRule type="expression" dxfId="145" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="144" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="143" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="142" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="141" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="140" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="139" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="138" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="137" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="136" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="135" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="134" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="133" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="132" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="131" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="130" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="129" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="128" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="127" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="126" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="125" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="124" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="123" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="122" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="121" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="120" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="119" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="118" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="117" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="116" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="115" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="114" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="113" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="112" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="111" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="110" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="109" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="108" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="107" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="106" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="105" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="104" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="103" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="102" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="101" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="100" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="99" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="98" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="97" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="96" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="95" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="94" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="93" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="92" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="91" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="90" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="89" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="88" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="87" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="86" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="85" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="84" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="83" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7021,8 +7096,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -7585,50 +7660,104 @@
       <c r="B59" s="42"/>
       <c r="C59" s="31"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="18"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A60" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="18"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="18"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="18"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="19"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
+      <c r="A65" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="20"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
+      <c r="A66" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="27">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="20"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
+      <c r="A67" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="27">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="20"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
+      <c r="A68" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="27">
+        <v>3</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="20"/>
@@ -7636,7 +7765,7 @@
       <c r="C69" s="27"/>
       <c r="D69">
         <f>SUM(C60:C69)</f>
-        <v>0</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7648,14 +7777,26 @@
       <c r="C70" s="31"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="18"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="25">
+        <v>4</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="18"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="25">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
@@ -7698,7 +7839,7 @@
       <c r="C80" s="27"/>
       <c r="D80">
         <f>SUM(C71:C80)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -7710,9 +7851,15 @@
       <c r="C81" s="31"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="18"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="18"/>
@@ -7760,7 +7907,7 @@
       <c r="C91" s="27"/>
       <c r="D91">
         <f>SUM(C82:C91)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -7781,7 +7928,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="32">
         <f>SUM(C14:C91)</f>
-        <v>33.5</v>
+        <v>54.75</v>
       </c>
       <c r="D94" s="13"/>
     </row>
@@ -7834,416 +7981,446 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="82" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="92" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A15:B24 A31:B35">
-    <cfRule type="expression" dxfId="81" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="91" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="80" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="90" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="79" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="84" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="78" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="89" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B58 A55:B55 A48:B53">
-    <cfRule type="expression" dxfId="77" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="82" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="87" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="75" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="80" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="74" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="83" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="73" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="88" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="72" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="79" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39 A43:B43 A41:B41 A46:B46 A38 A44:A45">
-    <cfRule type="expression" dxfId="71" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="86" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39 A41:B41 A38">
-    <cfRule type="expression" dxfId="70" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="85" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="69" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="81" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="68" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="67" priority="70" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="66" priority="72" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="65" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="76" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A66:B69 A65">
+    <cfRule type="expression" dxfId="72" priority="78" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A65">
+    <cfRule type="expression" dxfId="71" priority="77" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="64" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="63" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="62" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
+    <cfRule type="expression" dxfId="67" priority="72" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="66" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:B91 B82">
+    <cfRule type="expression" dxfId="65" priority="70" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
+    <cfRule type="expression" dxfId="64" priority="67" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C91">
+    <cfRule type="expression" dxfId="63" priority="68" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:B87 B82">
+    <cfRule type="expression" dxfId="62" priority="69" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
     <cfRule type="expression" dxfId="61" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="60" priority="58" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="59" priority="64" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="58" priority="61" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="57" priority="62" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="56" priority="63" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="55" priority="60" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="54" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="59" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="58" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="57" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="56" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="55" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
     <cfRule type="expression" dxfId="53" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" dxfId="51" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A42:B42">
+    <cfRule type="expression" dxfId="50" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="49" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="48" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="47" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="45" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="44" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="40" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="39" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="38" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="37" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="36" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="35" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="34" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="31" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="30" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="28" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="27" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="17" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="50" priority="54" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="49" priority="53" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="48" priority="52" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="47" priority="51" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="45" priority="49" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="44" priority="48" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="42" priority="46" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="41" priority="45" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="40" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="39" priority="43" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="38" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="37" priority="41" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="36" priority="39" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="35" priority="38" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="34" priority="40" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="33" priority="37" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="31" priority="34" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="30" priority="36" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="29" priority="33" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="28" priority="32" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="27" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="26" priority="29" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="25" priority="31" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="24" priority="28" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="22" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="20" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="18" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="17" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="15" priority="19" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
+  <conditionalFormatting sqref="B44">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="11" priority="15" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="10" priority="12" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B54">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B54">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B63">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B63">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B65">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
+  <conditionalFormatting sqref="B65">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
+  <conditionalFormatting sqref="A82">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
+  <conditionalFormatting sqref="A82">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D259CEB-B223-4AAD-8BCA-6A03FDDEAB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76606CF6-950A-452C-9551-E7BAC8E10EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
     <sheet name="Week 2" sheetId="11" r:id="rId2"/>
     <sheet name="Week 3" sheetId="12" r:id="rId3"/>
     <sheet name="Week 4" sheetId="13" r:id="rId4"/>
+    <sheet name="Week 5" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 5'!$A$1:$D$69</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="207">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -639,6 +641,18 @@
   </si>
   <si>
     <t>Researching various LSTM architectures (incl discussion with Ryan)</t>
+  </si>
+  <si>
+    <t>Status presentation updates</t>
+  </si>
+  <si>
+    <t>Go over updated model template with Ryan</t>
+  </si>
+  <si>
+    <t>Modelling Results</t>
+  </si>
+  <si>
+    <t>Go over updated model template with Mitch</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1475,658 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="258">
+  <dxfs count="351">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4476,157 +5141,157 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="257" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="256" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="255" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="254" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="253" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="252" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="251" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="250" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="249" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="248" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="247" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="246" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="245" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="244" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="243" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="242" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="241" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="240" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="239" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="238" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="237" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="236" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="235" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="234" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="233" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="232" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="231" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="230" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="229" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="228" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="227" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5503,322 +6168,322 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="226" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="225" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="224" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="223" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="222" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B55 A58:B58">
-    <cfRule type="expression" dxfId="221" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="220" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="219" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="218" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="217" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="216" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
-    <cfRule type="expression" dxfId="215" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="214" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="213" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="212" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="211" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="210" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="209" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="208" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="207" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="206" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="205" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="204" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="203" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="202" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="201" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="200" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="199" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="198" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="197" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="196" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="195" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="194" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="193" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="192" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="191" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="190" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="189" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="188" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="187" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="186" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="185" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="184" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="expression" dxfId="183" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="182" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="181" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="180" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="179" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="178" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="177" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="176" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="175" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="174" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="173" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="172" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="171" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="170" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="169" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="168" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="167" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="166" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="165" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="164" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="163" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6713,372 +7378,372 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="162" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B29 A31:B35">
-    <cfRule type="expression" dxfId="161" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="160" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="159" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="158" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53 A58:B58 A55:B55">
-    <cfRule type="expression" dxfId="157" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="156" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="155" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="154" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="153" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="152" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B43 A41:B41 A45:B46 A44">
-    <cfRule type="expression" dxfId="151" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="150" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="149" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="148" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="147" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="146" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="145" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="144" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="143" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="142" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="141" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="140" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="139" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="138" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="137" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="136" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="135" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="134" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="133" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="132" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="131" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="130" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="129" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="128" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="127" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="126" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="125" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="124" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="123" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="122" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="121" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="120" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="119" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="118" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="117" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="116" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="115" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="114" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="113" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="112" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="111" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="110" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="109" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="108" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="107" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="106" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="105" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="104" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="103" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="102" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="101" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="100" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="99" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="98" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="97" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="96" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="95" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="94" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="93" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="92" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="91" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="90" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="89" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7096,8 +7761,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -7862,19 +8527,37 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="18"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
+      <c r="A83" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="18"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
+      <c r="A84" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="18"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
+      <c r="A85" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="18"/>
@@ -7907,7 +8590,7 @@
       <c r="C91" s="27"/>
       <c r="D91">
         <f>SUM(C82:C91)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -7928,7 +8611,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="32">
         <f>SUM(C14:C91)</f>
-        <v>54.75</v>
+        <v>56.75</v>
       </c>
       <c r="D94" s="13"/>
     </row>
@@ -7981,372 +8664,1453 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="88" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="94" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A15:B24 A31:B35">
-    <cfRule type="expression" dxfId="87" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="93" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="86" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="92" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="85" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="86" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="84" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="91" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B58 A55:B55 A48:B53">
-    <cfRule type="expression" dxfId="83" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="84" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="82" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="89" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="81" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="82" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="80" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="85" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="79" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="90" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="78" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="81" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39 A43:B43 A41:B41 A46:B46 A38 A44:A45">
-    <cfRule type="expression" dxfId="77" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="88" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39 A41:B41 A38">
-    <cfRule type="expression" dxfId="76" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="87" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="75" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="83" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="74" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="77" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
+    <cfRule type="expression" dxfId="166" priority="78" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A66:B69 A65">
+    <cfRule type="expression" dxfId="165" priority="80" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A65">
+    <cfRule type="expression" dxfId="164" priority="79" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B80">
+    <cfRule type="expression" dxfId="163" priority="76" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B76">
+    <cfRule type="expression" dxfId="162" priority="75" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C76">
+    <cfRule type="expression" dxfId="161" priority="73" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C80">
+    <cfRule type="expression" dxfId="160" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="159" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 A84:B91">
+    <cfRule type="expression" dxfId="158" priority="72" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
+    <cfRule type="expression" dxfId="157" priority="69" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C91">
+    <cfRule type="expression" dxfId="156" priority="70" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 A84:B87">
+    <cfRule type="expression" dxfId="155" priority="71" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="154" priority="68" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="153" priority="67" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="152" priority="65" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="151" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="150" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="149" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="148" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="147" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="146" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="145" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="144" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:B42">
+    <cfRule type="expression" dxfId="143" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="142" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="141" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="140" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="139" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="138" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="137" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="136" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="135" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="134" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="133" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="132" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="131" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="130" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="129" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="128" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="127" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="126" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="125" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="124" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="123" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="122" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="121" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="120" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="119" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="118" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="117" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="116" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="115" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="114" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="113" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="112" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="111" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="110" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="109" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="108" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="107" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="106" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="105" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="104" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="103" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="102" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="101" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="100" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="99" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="98" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="97" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="96" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="95" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" dxfId="94" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" dxfId="93" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:B83">
+    <cfRule type="expression" dxfId="92" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:B83">
+    <cfRule type="expression" dxfId="91" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F3762A-9741-419A-92D0-09BE06896D79}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="41">
+        <f>D3</f>
+        <v>44347</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="18"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="18"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="20"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24">
+        <f>SUM(C15:C24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <f>A14+1</f>
+        <v>44348</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="18"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="18"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="18"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="18"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="18"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="20"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35">
+        <f>SUM(C26:C35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="41">
+        <f>A25+1</f>
+        <v>44349</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="18"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="18"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="18"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="18"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="20"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46">
+        <f>SUM(C37:C46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="41">
+        <f>A36+1</f>
+        <v>44350</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="18"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="18"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="18"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="18"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="18"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="18"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="19"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="26"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="34"/>
+      <c r="D58">
+        <f>SUM(C48:C58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="41">
+        <f>A47+1</f>
+        <v>44351</v>
+      </c>
+      <c r="B59" s="42"/>
+      <c r="C59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="18"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="18"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="18"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="19"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="20"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69">
+        <f>SUM(C60:C69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="41">
+        <f>A59+1</f>
+        <v>44352</v>
+      </c>
+      <c r="B70" s="42"/>
+      <c r="C70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="18"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="18"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="18"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="18"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="19"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="20"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="20"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80">
+        <f>SUM(C71:C80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="41">
+        <f>A70+1</f>
+        <v>44353</v>
+      </c>
+      <c r="B81" s="42"/>
+      <c r="C81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="18"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="18"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="18"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="18"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="18"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="18"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="19"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="20"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="20"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="20"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91">
+        <f>SUM(C82:C91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="32">
+        <f>SUM(C14:C91)</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="9"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+    </row>
+    <row r="96" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="22"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="22"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="9"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+    </row>
+    <row r="102" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A70:B70"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="90" priority="91" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A15:B24 A31:B35">
+    <cfRule type="expression" dxfId="89" priority="90" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A31:B31">
+    <cfRule type="expression" dxfId="88" priority="89" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C43:C46 C41">
+    <cfRule type="expression" dxfId="87" priority="83" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="86" priority="88" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58 A55:B55 A48:B53">
+    <cfRule type="expression" dxfId="85" priority="81" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C29 C31">
+    <cfRule type="expression" dxfId="84" priority="86" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53 C58 C55">
+    <cfRule type="expression" dxfId="83" priority="79" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C41">
+    <cfRule type="expression" dxfId="82" priority="82" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
+    <cfRule type="expression" dxfId="81" priority="87" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="80" priority="78" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:B39 A43:B43 A41:B41 A46:B46 A38 A44:A45">
+    <cfRule type="expression" dxfId="79" priority="85" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:B39 A41:B41 A38">
+    <cfRule type="expression" dxfId="78" priority="84" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B53">
+    <cfRule type="expression" dxfId="77" priority="80" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C65">
+    <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C69">
+    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A66:B69 A65">
+    <cfRule type="expression" dxfId="74" priority="77" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A65">
     <cfRule type="expression" dxfId="73" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B64 A66:B69 A65">
-    <cfRule type="expression" dxfId="72" priority="78" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B64 A65">
-    <cfRule type="expression" dxfId="71" priority="77" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="70" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="69" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="68" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="67" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="66" priority="64" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83:B91 B82">
-    <cfRule type="expression" dxfId="65" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 A84:B91">
+    <cfRule type="expression" dxfId="67" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="64" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="63" priority="68" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83:B87 B82">
-    <cfRule type="expression" dxfId="62" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 A84:B87">
+    <cfRule type="expression" dxfId="64" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="61" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="60" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="59" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="58" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="57" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="56" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="55" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="53" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="52" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="51" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="50" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="49" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="48" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="47" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="46" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="45" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="44" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="44" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
     <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="40" priority="46" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="39" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="40" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
     <cfRule type="expression" dxfId="38" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="37" priority="40" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="36" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="35" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="34" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="34" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
     <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="31" priority="37" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="30" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="30" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
     <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="28" priority="31" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="27" priority="33" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="26" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="24" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="23" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="21" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="20" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
     <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="17" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="16" priority="18" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8355,12 +10119,12 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B45">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B45">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -8370,12 +10134,12 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B54">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B54">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -8385,42 +10149,42 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
+  <conditionalFormatting sqref="B63">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
+  <conditionalFormatting sqref="B63">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
+  <conditionalFormatting sqref="B65">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
+  <conditionalFormatting sqref="B65">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
+  <conditionalFormatting sqref="A82">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
+  <conditionalFormatting sqref="A82">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
+  <conditionalFormatting sqref="A83:B83">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
+  <conditionalFormatting sqref="A83:B83">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\MDS\capstone\w2020-data599-capstone-projects-ubc-udl\personal-logs\nathan-smith\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79871AB3-DB45-42FE-8754-0A079A9956F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76606CF6-950A-452C-9551-E7BAC8E10EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
     <sheet name="Week 2" sheetId="11" r:id="rId2"/>
     <sheet name="Week 3" sheetId="12" r:id="rId3"/>
     <sheet name="Week 4" sheetId="13" r:id="rId4"/>
+    <sheet name="Week 5" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 2'!$A$1:$D$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 5'!$A$1:$D$69</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="207">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -510,6 +512,147 @@
   </si>
   <si>
     <t>Repo clean-up</t>
+  </si>
+  <si>
+    <t>Project Documents/Project Management</t>
+  </si>
+  <si>
+    <t>Summarize weekly time/tasks (not previously done)</t>
+  </si>
+  <si>
+    <t>Update status presentation</t>
+  </si>
+  <si>
+    <t>Discuss model pipeline with Ryan</t>
+  </si>
+  <si>
+    <t>Discuss model pipeline with Mitch</t>
+  </si>
+  <si>
+    <t>Model Pipeline</t>
+  </si>
+  <si>
+    <t>Discuss data access and anomaly labels with UDL</t>
+  </si>
+  <si>
+    <t>Data Access/Anomally Labelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on mid-project status presentation </t>
+  </si>
+  <si>
+    <t>Stand-up and go over presentation</t>
+  </si>
+  <si>
+    <t>PR review for LSTM model</t>
+  </si>
+  <si>
+    <t>Meeting with UBC profs</t>
+  </si>
+  <si>
+    <t>Post-meeting team discussion</t>
+  </si>
+  <si>
+    <t>PR discussion with Mitch</t>
+  </si>
+  <si>
+    <t>Preparing variations on labelled data</t>
+  </si>
+  <si>
+    <t>Message UBC Profs on labelled data plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review cleaning pipeline code </t>
+  </si>
+  <si>
+    <t>Emailing/messaging UDL/EWS</t>
+  </si>
+  <si>
+    <t>Get sprint planning doc ready and clean-up Clubhouse</t>
+  </si>
+  <si>
+    <t>Work on status presentation</t>
+  </si>
+  <si>
+    <t>Messaging with Jiachen</t>
+  </si>
+  <si>
+    <t>Discussions with Profs/TAs on approach study/modelling</t>
+  </si>
+  <si>
+    <t>Modelling Approach</t>
+  </si>
+  <si>
+    <t>Modelling discussions with Ryan/Mitch</t>
+  </si>
+  <si>
+    <t>File structure for model package</t>
+  </si>
+  <si>
+    <t>Model Pipeline / Project Management</t>
+  </si>
+  <si>
+    <t>PR reviews for LSTM model and for cleaning pipeline</t>
+  </si>
+  <si>
+    <t>Testing spectral-residual transormations/discuss with TA</t>
+  </si>
+  <si>
+    <t>Working with Jiachen on streaming parsing</t>
+  </si>
+  <si>
+    <t>Parsing</t>
+  </si>
+  <si>
+    <t>Post-sprint planning meeting</t>
+  </si>
+  <si>
+    <t>Code discussion with Ryan</t>
+  </si>
+  <si>
+    <t>Commit various project management docs to github and setup minutes for Monday</t>
+  </si>
+  <si>
+    <t>PR review on model pipeline</t>
+  </si>
+  <si>
+    <t>Discuss spectral residual transformation with Debangsha</t>
+  </si>
+  <si>
+    <t>Final Report</t>
+  </si>
+  <si>
+    <t>Start report template (waiting on code) and discuss report with Ryan</t>
+  </si>
+  <si>
+    <t>Custom transformer class for spectral residual code</t>
+  </si>
+  <si>
+    <t>Discuss preliminary model results and results template notebook</t>
+  </si>
+  <si>
+    <t>Model Results</t>
+  </si>
+  <si>
+    <t>Modelling</t>
+  </si>
+  <si>
+    <t>Researching various LSTM architectures</t>
+  </si>
+  <si>
+    <t>Researching various LSTM architectures (incl discussion with Ryan)</t>
+  </si>
+  <si>
+    <t>Status presentation updates</t>
+  </si>
+  <si>
+    <t>Go over updated model template with Ryan</t>
+  </si>
+  <si>
+    <t>Modelling Results</t>
+  </si>
+  <si>
+    <t>Go over updated model template with Mitch</t>
   </si>
 </sst>
 </file>
@@ -1260,14 +1403,6 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1283,6 +1418,14 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1332,7 +1475,763 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="243">
+  <dxfs count="351">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3412,7 +4311,7 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3508,11 +4407,11 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="36">
+      <c r="A14" s="41">
         <f>D3</f>
         <v>44319</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -3624,11 +4523,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="36">
+      <c r="A25" s="41">
         <f>A14+1</f>
         <v>44320</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -3740,11 +4639,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="36">
+      <c r="A36" s="41">
         <f>A25+1</f>
         <v>44321</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -3852,11 +4751,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="36">
+      <c r="A47" s="41">
         <f>A36+1</f>
         <v>44322</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -3950,11 +4849,11 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="36">
+      <c r="A58" s="41">
         <f>A47+1</f>
         <v>44323</v>
       </c>
-      <c r="B58" s="37"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="31"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -4036,11 +4935,11 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="36">
+      <c r="A69" s="41">
         <f>A58+1</f>
         <v>44324</v>
       </c>
-      <c r="B69" s="37"/>
+      <c r="B69" s="42"/>
       <c r="C69" s="31"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
@@ -4110,11 +5009,11 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="36">
+      <c r="A80" s="41">
         <f>A69+1</f>
         <v>44325</v>
       </c>
-      <c r="B80" s="37"/>
+      <c r="B80" s="42"/>
       <c r="C80" s="31"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
@@ -4242,157 +5141,157 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="242" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="241" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="240" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="239" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="238" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="237" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="236" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="235" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="234" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="233" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="232" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="231" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="230" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="229" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="228" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="227" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="226" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="225" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="224" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="223" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="222" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="221" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="220" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="219" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="218" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="217" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="216" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="215" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="214" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="213" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="212" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4506,11 +5405,11 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="36">
+      <c r="A14" s="41">
         <f>D3</f>
         <v>44326</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -4610,11 +5509,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="36">
+      <c r="A25" s="41">
         <f>A14+1</f>
         <v>44327</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -4714,11 +5613,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="36">
+      <c r="A36" s="41">
         <f>A25+1</f>
         <v>44328</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -4814,11 +5713,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="36">
+      <c r="A47" s="41">
         <f>A36+1</f>
         <v>44329</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -4947,11 +5846,11 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="36">
+      <c r="A59" s="41">
         <f>A47+1</f>
         <v>44330</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -5051,11 +5950,11 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="36">
+      <c r="A70" s="41">
         <f>A59+1</f>
         <v>44331</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="31"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -5113,11 +6012,11 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="36">
+      <c r="A81" s="41">
         <f>A70+1</f>
         <v>44332</v>
       </c>
-      <c r="B81" s="37"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="31"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -5269,322 +6168,322 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="211" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="210" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="209" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="208" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="207" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B55 A58:B58">
-    <cfRule type="expression" dxfId="206" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="205" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="204" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="203" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="202" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="201" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
-    <cfRule type="expression" dxfId="200" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="199" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="198" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="197" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="196" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="195" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="194" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="193" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="192" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="191" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="190" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="189" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="188" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="187" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="186" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="185" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="184" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="183" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="182" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="181" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="180" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="179" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="178" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="177" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="176" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="175" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="174" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="173" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="172" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="171" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="170" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="169" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="expression" dxfId="168" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="167" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="166" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="165" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="164" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="163" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="162" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="161" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="160" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="159" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="158" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="157" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="156" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="155" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="154" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="153" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="152" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="151" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="150" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="149" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="148" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5602,7 +6501,7 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
@@ -5698,11 +6597,11 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="36">
+      <c r="A14" s="41">
         <f>D3</f>
         <v>44333</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -5820,11 +6719,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="36">
+      <c r="A25" s="41">
         <f>A14+1</f>
         <v>44334</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -5924,11 +6823,11 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="36">
+      <c r="A36" s="41">
         <f>A25+1</f>
         <v>44335</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -6048,11 +6947,11 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="36">
+      <c r="A47" s="41">
         <f>A36+1</f>
         <v>44336</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -6157,11 +7056,11 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="36">
+      <c r="A59" s="41">
         <f>A47+1</f>
         <v>44337</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -6267,11 +7166,11 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="36">
+      <c r="A70" s="41">
         <f>A59+1</f>
         <v>44338</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="31"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -6341,11 +7240,11 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="36">
+      <c r="A81" s="41">
         <f>A70+1</f>
         <v>44339</v>
       </c>
-      <c r="B81" s="37"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="31"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
@@ -6479,372 +7378,372 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="147" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B29 A31:B35">
-    <cfRule type="expression" dxfId="146" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="145" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="144" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="143" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53 A58:B58 A55:B55">
-    <cfRule type="expression" dxfId="142" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="141" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="140" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="139" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="138" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="137" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B43 A41:B41 A45:B46 A44">
-    <cfRule type="expression" dxfId="136" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="135" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="134" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="133" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="132" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="131" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="130" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="129" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="128" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="127" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="126" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="125" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="124" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="123" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="122" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="121" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="120" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="119" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="118" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="117" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="116" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="115" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="114" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="113" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="112" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="111" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="110" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="109" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="108" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="107" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="106" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="105" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="104" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="103" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="102" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="101" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="100" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="99" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="98" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="97" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="96" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="95" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="94" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="93" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="92" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="91" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="90" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="89" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="88" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="87" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="86" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="85" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="84" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="83" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="82" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="81" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="80" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="79" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="78" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="77" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="76" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="75" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="74" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6862,8 +7761,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -6926,8 +7825,8 @@
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -6951,14 +7850,14 @@
       <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="36">
+      <c r="A14" s="41">
         <f>D3</f>
         <v>44340</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -7013,28 +7912,52 @@
         <v>20</v>
       </c>
       <c r="C19" s="26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="27">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-    </row>
     <row r="22" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
+      <c r="A22" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="27">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="20"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
+      <c r="A23" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C23" s="27">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="20"/>
@@ -7042,61 +7965,115 @@
       <c r="C24" s="27"/>
       <c r="D24">
         <f>SUM(C15:C24)</f>
-        <v>4.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="36">
+      <c r="A25" s="41">
         <f>A14+1</f>
         <v>44341</v>
       </c>
-      <c r="B25" s="37"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="25">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="18"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="18"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
+      <c r="A32" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="20"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="27">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="20"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
+      <c r="A34" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="27">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="20"/>
@@ -7104,115 +8081,217 @@
       <c r="C35" s="27"/>
       <c r="D35">
         <f>SUM(C26:C35)</f>
-        <v>0</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="36">
+      <c r="A36" s="41">
         <f>A25+1</f>
         <v>44342</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="25">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="25">
+        <v>1.5</v>
+      </c>
       <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="18"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="19"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="26">
+        <v>1.25</v>
+      </c>
       <c r="D43" s="33"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="20"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="27">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="20"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="27">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="20"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="A46" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="27">
+        <v>1</v>
+      </c>
       <c r="D46">
         <f>SUM(C37:C46)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="36">
+      <c r="A47" s="41">
         <f>A36+1</f>
         <v>44343</v>
       </c>
-      <c r="B47" s="37"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="18"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="18"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="25">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="18"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="19"/>
@@ -7235,61 +8314,115 @@
       <c r="C58" s="34"/>
       <c r="D58">
         <f>SUM(C48:C58)</f>
-        <v>0</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="36">
+      <c r="A59" s="41">
         <f>A47+1</f>
         <v>44344</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="31"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="18"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A60" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="18"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="18"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="18"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="19"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
+      <c r="A65" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="20"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
+      <c r="A66" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="27">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="20"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
+      <c r="A67" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="27">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="20"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
+      <c r="A68" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="27">
+        <v>3</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="20"/>
@@ -7297,26 +8430,38 @@
       <c r="C69" s="27"/>
       <c r="D69">
         <f>SUM(C60:C69)</f>
-        <v>0</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="36">
+      <c r="A70" s="41">
         <f>A59+1</f>
         <v>44345</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="31"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="18"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" s="25">
+        <v>4</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="18"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="25">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="18"/>
@@ -7359,36 +8504,60 @@
       <c r="C80" s="27"/>
       <c r="D80">
         <f>SUM(C71:C80)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="36">
+      <c r="A81" s="41">
         <f>A70+1</f>
         <v>44346</v>
       </c>
-      <c r="B81" s="37"/>
+      <c r="B81" s="42"/>
       <c r="C81" s="31"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="18"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="18"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
+      <c r="A83" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="18"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
+      <c r="A84" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="18"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
+      <c r="A85" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C85" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="18"/>
@@ -7421,7 +8590,7 @@
       <c r="C91" s="27"/>
       <c r="D91">
         <f>SUM(C82:C91)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -7431,8 +8600,8 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="10"/>
-      <c r="B93" s="40"/>
-      <c r="C93" s="40"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="12"/>
     </row>
     <row r="94" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
@@ -7442,37 +8611,37 @@
       <c r="B94" s="17"/>
       <c r="C94" s="32">
         <f>SUM(C14:C91)</f>
-        <v>4.5</v>
+        <v>56.75</v>
       </c>
       <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A95" s="9"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="41"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
     </row>
     <row r="96" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="40"/>
-      <c r="C96" s="40"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
       <c r="D96" s="11"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="22"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="22"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="9"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="41"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="23"/>
@@ -7495,372 +8664,1528 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B24 A26:B29 A31:B35">
+    <cfRule type="expression" dxfId="181" priority="94" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A15:B24 A31:B35">
+    <cfRule type="expression" dxfId="180" priority="93" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A31:B31">
+    <cfRule type="expression" dxfId="179" priority="92" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C43:C46 C41">
+    <cfRule type="expression" dxfId="178" priority="86" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="177" priority="91" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58 A55:B55 A48:B53">
+    <cfRule type="expression" dxfId="176" priority="84" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C29 C31">
+    <cfRule type="expression" dxfId="175" priority="89" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53 C58 C55">
+    <cfRule type="expression" dxfId="174" priority="82" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C41">
+    <cfRule type="expression" dxfId="173" priority="85" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
+    <cfRule type="expression" dxfId="172" priority="90" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="171" priority="81" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:B39 A43:B43 A41:B41 A46:B46 A38 A44:A45">
+    <cfRule type="expression" dxfId="170" priority="88" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:B39 A41:B41 A38">
+    <cfRule type="expression" dxfId="169" priority="87" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B53">
+    <cfRule type="expression" dxfId="168" priority="83" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C65">
+    <cfRule type="expression" dxfId="167" priority="77" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C69">
+    <cfRule type="expression" dxfId="166" priority="78" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A66:B69 A65">
+    <cfRule type="expression" dxfId="165" priority="80" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A65">
+    <cfRule type="expression" dxfId="164" priority="79" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B80">
+    <cfRule type="expression" dxfId="163" priority="76" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B76">
+    <cfRule type="expression" dxfId="162" priority="75" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C76">
+    <cfRule type="expression" dxfId="161" priority="73" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C80">
+    <cfRule type="expression" dxfId="160" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="159" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 A84:B91">
+    <cfRule type="expression" dxfId="158" priority="72" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
+    <cfRule type="expression" dxfId="157" priority="69" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C91">
+    <cfRule type="expression" dxfId="156" priority="70" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 A84:B87">
+    <cfRule type="expression" dxfId="155" priority="71" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="154" priority="68" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="153" priority="67" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="152" priority="65" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="151" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="150" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="149" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="148" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="147" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="146" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="145" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="144" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:B42">
+    <cfRule type="expression" dxfId="143" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="142" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="141" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="140" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="139" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="138" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="137" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="136" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="135" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="134" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="133" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="132" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="131" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="130" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="129" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="128" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="127" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="126" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="125" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="124" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="123" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="122" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="121" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="120" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="119" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="118" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="117" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="116" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="115" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="114" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="113" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="112" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="111" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="110" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="109" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="108" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="107" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="106" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="105" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="104" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="103" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="102" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="101" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="100" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="99" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="98" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="97" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="96" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="95" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" dxfId="94" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" dxfId="93" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:B83">
+    <cfRule type="expression" dxfId="92" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:B83">
+    <cfRule type="expression" dxfId="91" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F3762A-9741-419A-92D0-09BE06896D79}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="41">
+        <f>D3</f>
+        <v>44347</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="18"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="18"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="18"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="18"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="20"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24">
+        <f>SUM(C15:C24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <f>A14+1</f>
+        <v>44348</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="18"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="18"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="18"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="18"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="18"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="18"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="20"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35">
+        <f>SUM(C26:C35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="41">
+        <f>A25+1</f>
+        <v>44349</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="18"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="18"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="18"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="18"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="20"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46">
+        <f>SUM(C37:C46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="41">
+        <f>A36+1</f>
+        <v>44350</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="18"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="18"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="18"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="18"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="18"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="18"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="19"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="26"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="34"/>
+      <c r="D58">
+        <f>SUM(C48:C58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="41">
+        <f>A47+1</f>
+        <v>44351</v>
+      </c>
+      <c r="B59" s="42"/>
+      <c r="C59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="18"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="18"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="18"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="19"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="20"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69">
+        <f>SUM(C60:C69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="41">
+        <f>A59+1</f>
+        <v>44352</v>
+      </c>
+      <c r="B70" s="42"/>
+      <c r="C70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="18"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="18"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="18"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="18"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="18"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="19"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="20"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="20"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80">
+        <f>SUM(C71:C80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="41">
+        <f>A70+1</f>
+        <v>44353</v>
+      </c>
+      <c r="B81" s="42"/>
+      <c r="C81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="18"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="18"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="18"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="18"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="18"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="18"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="19"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="20"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="20"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="20"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91">
+        <f>SUM(C82:C91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="32">
+        <f>SUM(C14:C91)</f>
+        <v>0</v>
+      </c>
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="9"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+    </row>
+    <row r="96" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="22"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="22"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="9"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+    </row>
+    <row r="102" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A70:B70"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="90" priority="91" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A15:B24 A31:B35">
+    <cfRule type="expression" dxfId="89" priority="90" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A31:B31">
+    <cfRule type="expression" dxfId="88" priority="89" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C43:C46 C41">
+    <cfRule type="expression" dxfId="87" priority="83" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="86" priority="88" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58 A55:B55 A48:B53">
+    <cfRule type="expression" dxfId="85" priority="81" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C29 C31">
+    <cfRule type="expression" dxfId="84" priority="86" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53 C58 C55">
+    <cfRule type="expression" dxfId="83" priority="79" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C41">
+    <cfRule type="expression" dxfId="82" priority="82" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
+    <cfRule type="expression" dxfId="81" priority="87" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="80" priority="78" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:B39 A43:B43 A41:B41 A46:B46 A38 A44:A45">
+    <cfRule type="expression" dxfId="79" priority="85" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:B39 A41:B41 A38">
+    <cfRule type="expression" dxfId="78" priority="84" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B53">
+    <cfRule type="expression" dxfId="77" priority="80" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C65">
+    <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C69">
+    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A66:B69 A65">
+    <cfRule type="expression" dxfId="74" priority="77" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A65">
+    <cfRule type="expression" dxfId="73" priority="76" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B80">
     <cfRule type="expression" dxfId="72" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B29 A31:B31">
+  <conditionalFormatting sqref="A71:B76">
     <cfRule type="expression" dxfId="71" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="70" priority="66" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
+  <conditionalFormatting sqref="C71:C76">
+    <cfRule type="expression" dxfId="70" priority="70" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C80">
     <cfRule type="expression" dxfId="69" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48:B53 A58:B58 A55:B55">
-    <cfRule type="expression" dxfId="68" priority="64" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C29 C31">
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="68" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 A84:B91">
     <cfRule type="expression" dxfId="67" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="66" priority="62" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="65" priority="65" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="64" priority="70" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="63" priority="61" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:B39 A43:B43 A41:B41 A45:B46 A44">
-    <cfRule type="expression" dxfId="62" priority="68" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="61" priority="67" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="60" priority="63" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="59" priority="57" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="58" priority="58" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="57" priority="60" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="56" priority="59" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B80">
+  <conditionalFormatting sqref="C82:C87">
+    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C91">
+    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 A84:B87">
+    <cfRule type="expression" dxfId="64" priority="68" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="63" priority="65" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="62" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="60" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="59" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
     <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:B76">
+  <conditionalFormatting sqref="C42">
     <cfRule type="expression" dxfId="54" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="53" priority="53" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="52" priority="54" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="51" priority="46" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="50" priority="52" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="49" priority="49" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="48" priority="50" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="47" priority="51" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="46" priority="48" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="45" priority="47" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="43" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:B42">
+    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="51" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="48" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="47" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="44" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="40" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="38" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="36" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="34" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="30" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="20" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="36" priority="37" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="35" priority="36" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="34" priority="35" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="33" priority="34" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="29" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="25" priority="28" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="22" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="21" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="16" priority="19" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
     <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="13" priority="13" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
+  <conditionalFormatting sqref="B54">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+  <conditionalFormatting sqref="B63">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B65">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B65">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54:B54">
+  <conditionalFormatting sqref="A82">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:B83">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:B83">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76606CF6-950A-452C-9551-E7BAC8E10EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5985AA73-6122-457B-A2A8-73A3DFAD7AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Week 3" sheetId="12" r:id="rId3"/>
     <sheet name="Week 4" sheetId="13" r:id="rId4"/>
     <sheet name="Week 5" sheetId="14" r:id="rId5"/>
+    <sheet name="Week 6" sheetId="16" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$68</definedName>
@@ -25,6 +26,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 3'!$A$1:$D$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 5'!$A$1:$D$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 6'!$A$1:$D$69</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="230">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -653,6 +655,75 @@
   </si>
   <si>
     <t>Go over updated model template with Mitch</t>
+  </si>
+  <si>
+    <t>PR review for model results</t>
+  </si>
+  <si>
+    <t>Project management: daily logs, weekly summary, tech meeting prep, stattus ppt</t>
+  </si>
+  <si>
+    <t>Meeting with UDL</t>
+  </si>
+  <si>
+    <t>Rehearse status presentation</t>
+  </si>
+  <si>
+    <t>Status Presentation</t>
+  </si>
+  <si>
+    <t>Messaging with UDL</t>
+  </si>
+  <si>
+    <t>Presentation setup for EWS Meeting Friday</t>
+  </si>
+  <si>
+    <t>Status presentations practice</t>
+  </si>
+  <si>
+    <t>Listen to status presentations</t>
+  </si>
+  <si>
+    <t>Attend Status Presentation</t>
+  </si>
+  <si>
+    <t>Status presentation</t>
+  </si>
+  <si>
+    <t>Work on Report</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Work on report</t>
+  </si>
+  <si>
+    <t>Discuss results</t>
+  </si>
+  <si>
+    <t>Sprint planning meeting with UDL</t>
+  </si>
+  <si>
+    <t>Update CEC ppt for tomorrow</t>
+  </si>
+  <si>
+    <t>work on report</t>
+  </si>
+  <si>
+    <t>Discussion with Ryan on results</t>
+  </si>
+  <si>
+    <t>EWS Presentation</t>
+  </si>
+  <si>
+    <t>Required plagiarism MDS course module</t>
+  </si>
+  <si>
+    <t>Review PR</t>
+  </si>
+  <si>
+    <t>Model Implementation</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1546,644 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="351">
+  <dxfs count="442">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4311,7 +5019,7 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A82" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -5141,157 +5849,157 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="350" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="349" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="348" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="347" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="346" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="345" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="344" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="343" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="342" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="341" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="340" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="339" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="338" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="337" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="336" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="335" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="334" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="333" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="332" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="331" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="330" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="329" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="328" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="327" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="326" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="325" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="324" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="323" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="322" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="321" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="320" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5309,7 +6017,7 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A76" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A81" sqref="A81:B81"/>
     </sheetView>
   </sheetViews>
@@ -6168,322 +6876,322 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="319" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="318" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="317" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="316" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="315" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B55 A58:B58">
-    <cfRule type="expression" dxfId="314" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="313" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="312" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="311" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="310" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="309" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
-    <cfRule type="expression" dxfId="308" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="307" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="306" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="305" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="304" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="303" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="302" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="301" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="300" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="299" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="298" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="297" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="296" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="295" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="294" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="293" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="292" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="291" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="290" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="289" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="288" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="287" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="286" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="285" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="284" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="283" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="282" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="281" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="280" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="279" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="278" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="277" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="expression" dxfId="276" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="275" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="274" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="273" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="272" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="271" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="270" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="269" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="268" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="267" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="266" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="265" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="264" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="263" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="262" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="261" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="260" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="259" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="258" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="257" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="256" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6501,7 +7209,7 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
@@ -7378,372 +8086,372 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="255" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B29 A31:B35">
-    <cfRule type="expression" dxfId="254" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="253" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="252" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="251" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53 A58:B58 A55:B55">
-    <cfRule type="expression" dxfId="250" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="249" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="248" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="247" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="246" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="245" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B43 A41:B41 A45:B46 A44">
-    <cfRule type="expression" dxfId="244" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="243" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="242" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="241" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="240" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="239" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="238" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="237" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="236" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="235" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="234" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="233" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="232" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="231" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="230" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="229" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="228" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="227" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="226" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="225" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="224" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="223" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="222" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="221" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="220" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="219" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="218" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="217" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="216" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="215" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="214" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="213" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="212" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="211" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="210" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="209" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="208" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="207" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="206" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="205" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="204" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="203" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="202" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="201" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="200" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="199" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="198" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="197" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="196" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="195" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="194" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="193" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="192" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="191" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="190" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="189" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="188" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="187" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="186" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="185" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="184" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="183" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="182" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7761,8 +8469,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView showGridLines="0" topLeftCell="A79" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -8664,457 +9372,457 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="181" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="94" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A15:B24 A31:B35">
-    <cfRule type="expression" dxfId="180" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="93" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="179" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="92" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="178" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="86" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="177" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="91" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B58 A55:B55 A48:B53">
-    <cfRule type="expression" dxfId="176" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="84" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="175" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="89" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="174" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="82" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="173" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="85" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="172" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="90" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="171" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="81" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39 A43:B43 A41:B41 A46:B46 A38 A44:A45">
-    <cfRule type="expression" dxfId="170" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="88" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39 A41:B41 A38">
-    <cfRule type="expression" dxfId="169" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="87" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="168" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="83" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="167" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="77" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="166" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="78" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B64 A66:B69 A65">
-    <cfRule type="expression" dxfId="165" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="80" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B64 A65">
-    <cfRule type="expression" dxfId="164" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="79" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="163" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="162" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="161" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="160" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="159" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82 A84:B91">
-    <cfRule type="expression" dxfId="158" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="157" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="156" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82 A84:B87">
-    <cfRule type="expression" dxfId="155" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="154" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="153" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="152" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="151" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="150" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="149" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="148" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="147" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="146" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="145" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="144" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="143" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="142" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="141" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="140" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="139" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="138" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="137" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="136" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="135" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="134" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="133" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="132" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="131" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="130" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="129" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="128" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="127" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="126" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="125" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="124" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="123" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="122" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="121" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="120" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="119" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="118" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="117" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="116" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="115" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="114" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="113" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="112" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="111" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="110" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="109" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="108" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="107" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="106" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="105" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="104" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="103" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="102" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="101" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="100" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="99" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="98" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="97" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="96" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="95" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="expression" dxfId="94" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="expression" dxfId="93" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:B83">
-    <cfRule type="expression" dxfId="92" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:B83">
-    <cfRule type="expression" dxfId="91" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9133,7 +9841,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -9177,7 +9885,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -9232,6 +9940,1233 @@
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="26">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="27">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="20"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24">
+        <f>SUM(C15:C24)</f>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <f>A14+1</f>
+        <v>44348</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="18"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="18"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="18"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="20"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35">
+        <f>SUM(C26:C35)</f>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="41">
+        <f>A25+1</f>
+        <v>44349</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="25">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C39" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="18"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="18"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="20"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46">
+        <f>SUM(C37:C46)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="41">
+        <f>A36+1</f>
+        <v>44350</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="18"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="18"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="18"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="19"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="26"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="34"/>
+      <c r="D58">
+        <f>SUM(C48:C58)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="41">
+        <f>A47+1</f>
+        <v>44351</v>
+      </c>
+      <c r="B59" s="42"/>
+      <c r="C59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="25">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="18"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="19"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="20"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69">
+        <f>SUM(C60:C69)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="41">
+        <f>A59+1</f>
+        <v>44352</v>
+      </c>
+      <c r="B70" s="42"/>
+      <c r="C70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="18"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="18"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="18"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="19"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="20"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="20"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80">
+        <f>SUM(C71:C80)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="41">
+        <f>A70+1</f>
+        <v>44353</v>
+      </c>
+      <c r="B81" s="42"/>
+      <c r="C81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="18"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="18"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="18"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="18"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="18"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="18"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="19"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="20"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="20"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="20"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91">
+        <f>SUM(C82:C91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="32">
+        <f>SUM(C14:C91)</f>
+        <v>44.5</v>
+      </c>
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="9"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+    </row>
+    <row r="96" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="22"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="22"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="9"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+    </row>
+    <row r="102" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A70:B70"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="181" priority="91" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A31:B35 A15:B24">
+    <cfRule type="expression" dxfId="180" priority="90" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A31:B31">
+    <cfRule type="expression" dxfId="179" priority="89" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C43:C46 C41">
+    <cfRule type="expression" dxfId="178" priority="83" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="177" priority="88" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58 A55:B55 A48:B53">
+    <cfRule type="expression" dxfId="176" priority="81" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C29 C31">
+    <cfRule type="expression" dxfId="175" priority="86" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53 C58 C55">
+    <cfRule type="expression" dxfId="174" priority="79" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C41">
+    <cfRule type="expression" dxfId="173" priority="82" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
+    <cfRule type="expression" dxfId="172" priority="87" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="171" priority="78" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:B39 A43:B43 A41:B41 A46:B46 A38 A44:A45">
+    <cfRule type="expression" dxfId="170" priority="85" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:B39 A41:B41 A38">
+    <cfRule type="expression" dxfId="169" priority="84" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B53">
+    <cfRule type="expression" dxfId="168" priority="80" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C65">
+    <cfRule type="expression" dxfId="167" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C69">
+    <cfRule type="expression" dxfId="166" priority="75" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A66:B69 A65">
+    <cfRule type="expression" dxfId="165" priority="77" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A65">
+    <cfRule type="expression" dxfId="164" priority="76" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B80">
+    <cfRule type="expression" dxfId="163" priority="73" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B76">
+    <cfRule type="expression" dxfId="162" priority="72" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C76">
+    <cfRule type="expression" dxfId="161" priority="70" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C80">
+    <cfRule type="expression" dxfId="160" priority="71" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="159" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 A84:B91">
+    <cfRule type="expression" dxfId="158" priority="69" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
+    <cfRule type="expression" dxfId="157" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C91">
+    <cfRule type="expression" dxfId="156" priority="67" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 A84:B87">
+    <cfRule type="expression" dxfId="155" priority="68" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="154" priority="65" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="153" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="152" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="151" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="150" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="149" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="148" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="147" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="146" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="145" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="144" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:B42">
+    <cfRule type="expression" dxfId="143" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="142" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="141" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="140" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="139" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="138" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="137" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="136" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="135" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="134" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="133" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="132" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="131" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="130" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="129" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="128" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="127" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="126" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="125" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="124" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="123" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="122" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="121" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="120" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="119" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="118" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="117" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="116" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="115" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="114" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="113" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="112" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="111" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="110" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="109" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="108" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="107" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="106" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="105" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="104" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="103" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="102" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="101" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="100" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="99" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="98" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="97" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="96" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="95" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" dxfId="94" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" dxfId="93" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:B83">
+    <cfRule type="expression" dxfId="92" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:B83">
+    <cfRule type="expression" dxfId="91" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D95EE7D-6CDD-4023-B845-ACA36524A971}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="41">
+        <f>D3</f>
+        <v>44354</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="18"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -9258,7 +11193,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="20"/>
-      <c r="B20" s="27"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -9288,7 +11223,7 @@
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="41">
         <f>A14+1</f>
-        <v>44348</v>
+        <v>44355</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="31"/>
@@ -9350,7 +11285,7 @@
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <f>A25+1</f>
-        <v>44349</v>
+        <v>44356</v>
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="31"/>
@@ -9414,7 +11349,7 @@
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="41">
         <f>A36+1</f>
-        <v>44350</v>
+        <v>44357</v>
       </c>
       <c r="B47" s="42"/>
       <c r="C47" s="31"/>
@@ -9481,7 +11416,7 @@
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="41">
         <f>A47+1</f>
-        <v>44351</v>
+        <v>44358</v>
       </c>
       <c r="B59" s="42"/>
       <c r="C59" s="31"/>
@@ -9543,7 +11478,7 @@
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="41">
         <f>A59+1</f>
-        <v>44352</v>
+        <v>44359</v>
       </c>
       <c r="B70" s="42"/>
       <c r="C70" s="31"/>
@@ -9605,7 +11540,7 @@
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="41">
         <f>A70+1</f>
-        <v>44353</v>
+        <v>44360</v>
       </c>
       <c r="B81" s="42"/>
       <c r="C81" s="31"/>
@@ -9739,7 +11674,7 @@
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B29 A15:B24 A31:B35">
+  <conditionalFormatting sqref="A26:B29 A31:B35 A15:B24">
     <cfRule type="expression" dxfId="89" priority="90" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5985AA73-6122-457B-A2A8-73A3DFAD7AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AFFC74-0FBF-49C7-8E51-3FA1D29B79A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="261">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -724,6 +724,99 @@
   </si>
   <si>
     <t>Model Implementation</t>
+  </si>
+  <si>
+    <t>Project management (update logs, weekly summary, meeting minutes, etc)</t>
+  </si>
+  <si>
+    <t>Project Mangaement</t>
+  </si>
+  <si>
+    <t>Stand-up / project planning discussion</t>
+  </si>
+  <si>
+    <t>Stand-up and go over status presentation</t>
+  </si>
+  <si>
+    <t>Weekly status meeting</t>
+  </si>
+  <si>
+    <t>Work on next week status presentation</t>
+  </si>
+  <si>
+    <t>Setup this week's sprint planning doc</t>
+  </si>
+  <si>
+    <t>Discuss report with Ryan</t>
+  </si>
+  <si>
+    <t>Discuss dashboard with Mitch</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Review test environment</t>
+  </si>
+  <si>
+    <t>Test Environment Example</t>
+  </si>
+  <si>
+    <t>Update sprint planning doc</t>
+  </si>
+  <si>
+    <t>Dashboard query code</t>
+  </si>
+  <si>
+    <t>Work on report appendix</t>
+  </si>
+  <si>
+    <t>Internal meeting</t>
+  </si>
+  <si>
+    <t>Work on final ppt</t>
+  </si>
+  <si>
+    <t>Final Presentation</t>
+  </si>
+  <si>
+    <t>Client meeting</t>
+  </si>
+  <si>
+    <t>Post meeting communication with client</t>
+  </si>
+  <si>
+    <t>Client communication</t>
+  </si>
+  <si>
+    <t>Discusssion with Ryan on Report Results</t>
+  </si>
+  <si>
+    <t>Code/Repo clean-up</t>
+  </si>
+  <si>
+    <t>Work on cleaning up GitHub</t>
+  </si>
+  <si>
+    <t>Manual data downloads for phase 2 testing</t>
+  </si>
+  <si>
+    <t>Manual Data Downloads</t>
+  </si>
+  <si>
+    <t>Work on report and executive Summary</t>
+  </si>
+  <si>
+    <t>Working on dashboard</t>
+  </si>
+  <si>
+    <t>Project organization</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Working on report (results and formatting)</t>
   </si>
 </sst>
 </file>
@@ -9840,8 +9933,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -11067,8 +11160,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -11112,7 +11205,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -11167,19 +11260,37 @@
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="A15" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="25">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="25">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="25">
+        <v>4.75</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="18"/>
@@ -11217,7 +11328,7 @@
       <c r="C24" s="27"/>
       <c r="D24">
         <f>SUM(C15:C24)</f>
-        <v>0</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11229,29 +11340,59 @@
       <c r="C25" s="31"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="18"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="25">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="18"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="18"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="18"/>
@@ -11279,7 +11420,7 @@
       <c r="C35" s="27"/>
       <c r="D35">
         <f>SUM(C26:C35)</f>
-        <v>0</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11291,29 +11432,59 @@
       <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="25">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="18"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="18"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C39" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="18"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="18"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="25">
+        <v>0.25</v>
+      </c>
       <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -11343,7 +11514,7 @@
       <c r="C46" s="27"/>
       <c r="D46">
         <f>SUM(C37:C46)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11355,44 +11526,92 @@
       <c r="C47" s="31"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="18"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="18"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C49" s="25">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="18"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="25">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="18"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="18"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="19"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="26">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="18"/>
@@ -11410,7 +11629,7 @@
       <c r="C58" s="34"/>
       <c r="D58">
         <f>SUM(C48:C58)</f>
-        <v>0</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11422,29 +11641,59 @@
       <c r="C59" s="31"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="18"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="18"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="18"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" s="25">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="18"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="25">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="19"/>
@@ -11472,7 +11721,7 @@
       <c r="C69" s="27"/>
       <c r="D69">
         <f>SUM(C60:C69)</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11484,9 +11733,15 @@
       <c r="C70" s="31"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="18"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C71" s="25">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="18"/>
@@ -11534,7 +11789,7 @@
       <c r="C80" s="27"/>
       <c r="D80">
         <f>SUM(C71:C80)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -11546,14 +11801,26 @@
       <c r="C81" s="31"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="18"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82" s="25">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="18"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
+      <c r="A83" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" s="25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="18"/>
@@ -11596,7 +11863,7 @@
       <c r="C91" s="27"/>
       <c r="D91">
         <f>SUM(C82:C91)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
@@ -11617,7 +11884,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="32">
         <f>SUM(C14:C91)</f>
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="D94" s="13"/>
     </row>

--- a/personal-logs/nathan-smith/WorkLog_ns.xlsx
+++ b/personal-logs/nathan-smith/WorkLog_ns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AFFC74-0FBF-49C7-8E51-3FA1D29B79A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C5A0F1-8244-42BE-A27A-F6271447E7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Week 4" sheetId="13" r:id="rId4"/>
     <sheet name="Week 5" sheetId="14" r:id="rId5"/>
     <sheet name="Week 6" sheetId="16" r:id="rId6"/>
+    <sheet name="Week 7" sheetId="17" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 1'!$A$1:$D$68</definedName>
@@ -27,6 +28,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Week 4'!$A$1:$D$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Week 5'!$A$1:$D$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Week 6'!$A$1:$D$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Week 7'!$A$1:$D$69</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="291">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -817,6 +819,96 @@
   </si>
   <si>
     <t>Working on report (results and formatting)</t>
+  </si>
+  <si>
+    <t>Project documents (logs, weekly summary, meeting minutes)</t>
+  </si>
+  <si>
+    <t>Python environment</t>
+  </si>
+  <si>
+    <t>Code / repo clean-up</t>
+  </si>
+  <si>
+    <t>Stand-up/planning</t>
+  </si>
+  <si>
+    <t>Discussions with UDL on LSTM-ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard review with Mitch </t>
+  </si>
+  <si>
+    <t>Testing Dashboard/Notification System</t>
+  </si>
+  <si>
+    <t>Update weekly meeting</t>
+  </si>
+  <si>
+    <t>Walkthrough document</t>
+  </si>
+  <si>
+    <t>Demo file</t>
+  </si>
+  <si>
+    <t>Discuss data issue with Mitch</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Report updates</t>
+  </si>
+  <si>
+    <t>Update presentation</t>
+  </si>
+  <si>
+    <t>Sprint planning document</t>
+  </si>
+  <si>
+    <t>Project documents</t>
+  </si>
+  <si>
+    <t>InfluxDB issue</t>
+  </si>
+  <si>
+    <t>Review notebook</t>
+  </si>
+  <si>
+    <t>Clean-up repo</t>
+  </si>
+  <si>
+    <t>Stand-up Meeting</t>
+  </si>
+  <si>
+    <t>Meeting with Ibrahim</t>
+  </si>
+  <si>
+    <t>Last project meeting with UDL</t>
+  </si>
+  <si>
+    <t>Diccussion with Ryan on Model Code</t>
+  </si>
+  <si>
+    <t>Report work</t>
+  </si>
+  <si>
+    <t>Blog post for UDL</t>
+  </si>
+  <si>
+    <t>Wrap-up</t>
+  </si>
+  <si>
+    <t>Discusion with Jiachen</t>
+  </si>
+  <si>
+    <t>Wrap-up/Report</t>
+  </si>
+  <si>
+    <t>Issues with non-deterministic LSTM</t>
+  </si>
+  <si>
+    <t>Final repo/notebook/code updates</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1731,672 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="442">
+  <dxfs count="537">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5112,7 +5869,7 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -5942,157 +6699,157 @@
     <mergeCell ref="A69:B69"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="441" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="536" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="440" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="439" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C46">
-    <cfRule type="expression" dxfId="438" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="437" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B57">
-    <cfRule type="expression" dxfId="436" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="435" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C57">
-    <cfRule type="expression" dxfId="434" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C42">
-    <cfRule type="expression" dxfId="433" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="432" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="431" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B46">
-    <cfRule type="expression" dxfId="430" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B42">
-    <cfRule type="expression" dxfId="429" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="428" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C64">
-    <cfRule type="expression" dxfId="427" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C68">
-    <cfRule type="expression" dxfId="426" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B68">
-    <cfRule type="expression" dxfId="425" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:B64">
-    <cfRule type="expression" dxfId="424" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B79">
-    <cfRule type="expression" dxfId="423" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B75">
-    <cfRule type="expression" dxfId="422" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C75">
-    <cfRule type="expression" dxfId="421" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:C79">
-    <cfRule type="expression" dxfId="420" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58">
-    <cfRule type="expression" dxfId="419" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B90">
-    <cfRule type="expression" dxfId="418" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C86">
-    <cfRule type="expression" dxfId="417" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81:C90">
-    <cfRule type="expression" dxfId="416" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B86">
-    <cfRule type="expression" dxfId="415" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="414" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="413" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69">
-    <cfRule type="expression" dxfId="412" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="411" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6110,7 +6867,7 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A81" sqref="A81:B81"/>
     </sheetView>
   </sheetViews>
@@ -6969,322 +7726,322 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="410" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B35">
-    <cfRule type="expression" dxfId="409" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B31">
-    <cfRule type="expression" dxfId="408" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="407" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="406" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B55 A58:B58">
-    <cfRule type="expression" dxfId="405" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C31">
-    <cfRule type="expression" dxfId="404" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C55 C58">
-    <cfRule type="expression" dxfId="403" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="498" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="402" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C35">
-    <cfRule type="expression" dxfId="401" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="400" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B46 A41:B41">
-    <cfRule type="expression" dxfId="399" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="398" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="397" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="396" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="395" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="394" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="393" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="392" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="391" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="390" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="389" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="388" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="387" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="386" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="385" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="384" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="383" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="382" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="381" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="380" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="379" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="378" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="377" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="376" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="375" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="374" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="373" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="372" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="371" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="370" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="369" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="368" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="expression" dxfId="367" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="366" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="365" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="460" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="364" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="363" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="362" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="361" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="360" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="359" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="358" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="357" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="356" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="355" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="354" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="353" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="352" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="351" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="350" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="349" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="348" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="347" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7302,7 +8059,7 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
@@ -8179,372 +8936,372 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="346" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B24 A26:B29 A31:B35">
-    <cfRule type="expression" dxfId="345" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="344" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="343" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="342" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53 A58:B58 A55:B55">
-    <cfRule type="expression" dxfId="341" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="340" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="339" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="338" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="337" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="336" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A43:B43 A41:B41 A45:B46 A44">
-    <cfRule type="expression" dxfId="335" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:B39 A41:B41">
-    <cfRule type="expression" dxfId="334" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="333" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="332" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="331" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B69">
-    <cfRule type="expression" dxfId="330" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B65">
-    <cfRule type="expression" dxfId="329" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="328" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="327" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="422" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="326" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="325" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="324" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B91">
-    <cfRule type="expression" dxfId="323" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="322" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="321" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B87">
-    <cfRule type="expression" dxfId="320" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="319" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="318" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="317" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="316" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="315" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="314" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="313" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="312" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="311" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="310" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="309" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="308" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="307" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="306" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="305" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="304" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="303" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="302" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="301" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="300" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="299" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="298" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="297" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="296" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="295" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="294" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="293" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="292" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="291" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="290" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="289" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="384" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="288" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="287" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="286" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="285" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="284" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="283" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="282" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="281" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="280" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="279" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="278" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="277" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="276" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="275" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="274" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:B54">
-    <cfRule type="expression" dxfId="273" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9465,457 +10222,457 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="272" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="94" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A15:B24 A31:B35">
-    <cfRule type="expression" dxfId="271" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="93" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="270" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="92" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="269" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="86" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="268" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="91" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B58 A55:B55 A48:B53">
-    <cfRule type="expression" dxfId="267" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="84" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="266" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="89" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="265" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="82" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="264" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="85" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="263" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="90" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="262" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="81" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39 A43:B43 A41:B41 A46:B46 A38 A44:A45">
-    <cfRule type="expression" dxfId="261" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="88" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39 A41:B41 A38">
-    <cfRule type="expression" dxfId="260" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="87" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="259" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="83" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="258" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="77" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="257" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="78" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B64 A66:B69 A65">
-    <cfRule type="expression" dxfId="256" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="80" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B64 A65">
-    <cfRule type="expression" dxfId="255" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="79" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="254" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="253" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="252" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="251" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="346" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="250" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="345" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82 A84:B91">
-    <cfRule type="expression" dxfId="249" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="344" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="248" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="343" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="247" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="342" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82 A84:B87">
-    <cfRule type="expression" dxfId="246" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="341" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="245" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="340" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="244" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="339" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="243" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="338" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="242" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="241" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="240" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="239" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="238" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="237" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="236" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="235" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="234" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="233" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="232" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="231" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="230" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="229" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="228" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="227" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="226" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="225" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="224" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="223" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="222" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="221" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="220" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="219" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="218" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="217" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="216" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="215" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="214" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="213" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="308" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="212" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="307" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="211" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="306" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="210" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="305" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="209" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="304" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="208" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="303" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="207" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="302" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="206" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="301" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="205" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="300" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="204" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="203" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="202" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="201" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="200" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="199" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="198" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="197" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="196" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="195" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="194" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="193" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="192" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="191" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="190" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="189" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="188" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="187" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="186" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="expression" dxfId="185" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="expression" dxfId="184" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:B83">
-    <cfRule type="expression" dxfId="183" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:B83">
-    <cfRule type="expression" dxfId="182" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9933,8 +10690,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showGridLines="0" topLeftCell="A79" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -10692,457 +11449,457 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="181" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="91" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B35 A15:B24">
-    <cfRule type="expression" dxfId="180" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="90" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="179" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="89" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
-    <cfRule type="expression" dxfId="178" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="83" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="177" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="88" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B58 A55:B55 A48:B53">
-    <cfRule type="expression" dxfId="176" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="81" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="175" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="86" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="174" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="79" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="173" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="82" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="172" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="87" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
-    <cfRule type="expression" dxfId="171" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="78" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39 A43:B43 A41:B41 A46:B46 A38 A44:A45">
-    <cfRule type="expression" dxfId="170" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="85" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:B39 A41:B41 A38">
-    <cfRule type="expression" dxfId="169" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="84" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48:B53">
-    <cfRule type="expression" dxfId="168" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="80" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="167" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="74" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="166" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="75" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B64 A66:B69 A65">
-    <cfRule type="expression" dxfId="165" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="77" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A60:B64 A65">
-    <cfRule type="expression" dxfId="164" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="163" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="73" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="162" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="72" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
-    <cfRule type="expression" dxfId="161" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C80">
-    <cfRule type="expression" dxfId="160" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="159" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="63" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82 A84:B91">
-    <cfRule type="expression" dxfId="158" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="157" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="66" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="156" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="67" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82 A84:B87">
-    <cfRule type="expression" dxfId="155" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="154" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="65" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="153" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="64" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="expression" dxfId="152" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="151" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="expression" dxfId="150" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="149" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="59" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="148" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="58" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="147" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="57" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="146" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="56" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="145" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="55" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="144" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="54" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="143" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="53" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="142" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="52" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="141" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="51" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="140" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="50" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="139" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="49" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="138" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="48" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="137" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="47" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="136" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="46" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="135" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="44" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="134" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="43" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="133" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="45" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="132" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="42" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="131" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="40" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="130" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="39" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="129" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="41" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="128" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="38" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="127" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="37" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="126" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="35" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="125" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="34" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="124" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="36" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="123" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="33" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="122" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="31" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="121" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="30" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="120" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="32" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="119" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="29" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="118" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="28" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="117" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="26" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="116" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="27" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="115" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="25" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="114" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="24" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="113" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="112" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="21" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="111" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="20" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="110" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="22" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="109" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="expression" dxfId="108" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="107" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="106" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="expression" dxfId="105" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="104" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="103" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="102" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="101" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="100" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="99" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="98" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63">
-    <cfRule type="expression" dxfId="97" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="96" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65">
-    <cfRule type="expression" dxfId="95" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="expression" dxfId="94" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="expression" dxfId="93" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:B83">
-    <cfRule type="expression" dxfId="92" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:B83">
-    <cfRule type="expression" dxfId="91" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11160,8 +11917,8 @@
   </sheetPr>
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView showGridLines="0" topLeftCell="A67" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
@@ -11937,456 +12694,1745 @@
     <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="90" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="91" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B35 A15:B24">
-    <cfRule type="expression" dxfId="89" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="90" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29 A31:B31">
-    <cfRule type="expression" dxfId="88" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="89" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:C39 C43:C46 C41">
+    <cfRule type="expression" dxfId="182" priority="83" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="181" priority="88" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58 A55:B55 A48:B53">
+    <cfRule type="expression" dxfId="180" priority="81" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C29 C31">
+    <cfRule type="expression" dxfId="179" priority="86" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53 C58 C55">
+    <cfRule type="expression" dxfId="178" priority="79" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C39 C41">
+    <cfRule type="expression" dxfId="177" priority="82" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
+    <cfRule type="expression" dxfId="176" priority="87" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="175" priority="78" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:B39 A43:B43 A41:B41 A46:B46 A38 A44:A45">
+    <cfRule type="expression" dxfId="174" priority="85" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:B39 A41:B41 A38">
+    <cfRule type="expression" dxfId="173" priority="84" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B53">
+    <cfRule type="expression" dxfId="172" priority="80" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C65">
+    <cfRule type="expression" dxfId="171" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C69">
+    <cfRule type="expression" dxfId="170" priority="75" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A66:B69 A65">
+    <cfRule type="expression" dxfId="169" priority="77" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A65">
+    <cfRule type="expression" dxfId="168" priority="76" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B80">
+    <cfRule type="expression" dxfId="167" priority="73" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:B76">
+    <cfRule type="expression" dxfId="166" priority="72" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C76">
+    <cfRule type="expression" dxfId="165" priority="70" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C80">
+    <cfRule type="expression" dxfId="164" priority="71" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="163" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 A84:B91">
+    <cfRule type="expression" dxfId="162" priority="69" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
+    <cfRule type="expression" dxfId="161" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C91">
+    <cfRule type="expression" dxfId="160" priority="67" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 A84:B87">
+    <cfRule type="expression" dxfId="159" priority="68" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="158" priority="65" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="expression" dxfId="157" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="156" priority="62" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="155" priority="61" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="154" priority="60" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="153" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
+    <cfRule type="expression" dxfId="152" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="expression" dxfId="151" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="expression" dxfId="150" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="149" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="148" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:B42">
+    <cfRule type="expression" dxfId="147" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="146" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="145" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="144" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="143" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="142" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="141" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="140" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="139" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="138" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="137" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="136" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="135" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="134" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="133" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="132" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="131" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="130" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="129" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="128" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="127" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="126" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="125" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="124" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="123" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="122" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="121" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="120" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="119" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="118" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="117" priority="23" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="116" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="115" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="114" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="113" priority="19" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="112" priority="18" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="111" priority="17" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="110" priority="16" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="109" priority="15" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="108" priority="14" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="107" priority="13" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="expression" dxfId="106" priority="12" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="105" priority="11" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="104" priority="10" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54">
+    <cfRule type="expression" dxfId="103" priority="9" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="102" priority="8" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="101" priority="7" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="100" priority="6" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="99" priority="5" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" dxfId="98" priority="4" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" dxfId="97" priority="3" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:B83">
+    <cfRule type="expression" dxfId="96" priority="2" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83:B83">
+    <cfRule type="expression" dxfId="95" priority="1" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.25"/>
+  <pageSetup scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80291A91-B793-47D1-ACD5-4DC2998E923C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="70.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="41">
+        <f>D3</f>
+        <v>44361</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="20"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24">
+        <f>SUM(C15:C24)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <f>A14+1</f>
+        <v>44362</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="26">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="20"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35">
+        <f>SUM(C26:C35)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="41">
+        <f>A25+1</f>
+        <v>44363</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="25">
+        <v>1</v>
+      </c>
+      <c r="D41" s="33"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="18"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="33"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="20"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46">
+        <f>SUM(C37:C46)</f>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="41">
+        <f>A36+1</f>
+        <v>44364</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" s="25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C49" s="25">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C53" s="25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="26"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="34"/>
+      <c r="D58">
+        <f>SUM(C48:C58)</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="41">
+        <f>A47+1</f>
+        <v>44365</v>
+      </c>
+      <c r="B59" s="42"/>
+      <c r="C59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" s="25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C63" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="18"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="19"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="20"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="20"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="20"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="20"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69">
+        <f>SUM(C60:C69)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="41">
+        <f>A59+1</f>
+        <v>44366</v>
+      </c>
+      <c r="B70" s="42"/>
+      <c r="C70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" s="25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="18"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="18"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="18"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="18"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="18"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="19"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="20"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="20"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="20"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80">
+        <f>SUM(C71:C80)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="41">
+        <f>A70+1</f>
+        <v>44367</v>
+      </c>
+      <c r="B81" s="42"/>
+      <c r="C81" s="31"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82" s="25">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="18"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="18"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="18"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="18"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="18"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="19"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="20"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="20"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="20"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91">
+        <f>SUM(C82:C91)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="17"/>
+      <c r="C94" s="32">
+        <f>SUM(C14:C91)</f>
+        <v>51.5</v>
+      </c>
+      <c r="D94" s="13"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="9"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+    </row>
+    <row r="96" spans="1:4" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="22"/>
+      <c r="B97" s="40"/>
+      <c r="C97" s="40"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="22"/>
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="9"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="23"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+    </row>
+    <row r="102" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A70:B70"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="94" priority="95" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A31:B35 A15:B24">
+    <cfRule type="expression" dxfId="93" priority="94" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B29 A31:B31">
+    <cfRule type="expression" dxfId="92" priority="93" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C38 C43:C46 C41">
+    <cfRule type="expression" dxfId="91" priority="87" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="90" priority="92" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58:B58 A55:B55 A48:B48 A50:B52 A49 A53">
+    <cfRule type="expression" dxfId="89" priority="85" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C29 C31">
+    <cfRule type="expression" dxfId="88" priority="90" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48:C53 C58 C55">
     <cfRule type="expression" dxfId="87" priority="83" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="86" priority="88" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:B58 A55:B55 A48:B53">
-    <cfRule type="expression" dxfId="85" priority="81" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C29 C31">
-    <cfRule type="expression" dxfId="84" priority="86" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48:C53 C58 C55">
-    <cfRule type="expression" dxfId="83" priority="79" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C39 C41">
-    <cfRule type="expression" dxfId="82" priority="82" stopIfTrue="1">
+  <conditionalFormatting sqref="C37:C38 C41">
+    <cfRule type="expression" dxfId="86" priority="86" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:C24 C26:C29 C31:C35">
-    <cfRule type="expression" dxfId="81" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="91" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:C53">
+    <cfRule type="expression" dxfId="84" priority="82" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:B43 A41:B41 A46:B46 A38 A44:A45">
+    <cfRule type="expression" dxfId="83" priority="89" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:B41 A38">
+    <cfRule type="expression" dxfId="82" priority="88" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48:B48 A50:B52 A49 A53">
+    <cfRule type="expression" dxfId="81" priority="84" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60:C65">
     <cfRule type="expression" dxfId="80" priority="78" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39:B39 A43:B43 A41:B41 A46:B46 A38 A44:A45">
-    <cfRule type="expression" dxfId="79" priority="85" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:B39 A41:B41 A38">
-    <cfRule type="expression" dxfId="78" priority="84" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48:B53">
+  <conditionalFormatting sqref="C60:C69">
+    <cfRule type="expression" dxfId="79" priority="79" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A66:B69 A65">
+    <cfRule type="expression" dxfId="78" priority="81" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B64 A65">
     <cfRule type="expression" dxfId="77" priority="80" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C65">
-    <cfRule type="expression" dxfId="76" priority="74" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C69">
-    <cfRule type="expression" dxfId="75" priority="75" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B64 A66:B69 A65">
-    <cfRule type="expression" dxfId="74" priority="77" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60:B64 A65">
-    <cfRule type="expression" dxfId="73" priority="76" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A71:B80">
-    <cfRule type="expression" dxfId="72" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:B76">
-    <cfRule type="expression" dxfId="71" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="76" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:C76">
+    <cfRule type="expression" dxfId="74" priority="74" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:C80">
+    <cfRule type="expression" dxfId="73" priority="75" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="expression" dxfId="72" priority="67" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82 A84:B91">
+    <cfRule type="expression" dxfId="71" priority="73" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C87">
     <cfRule type="expression" dxfId="70" priority="70" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71:C80">
+  <conditionalFormatting sqref="C82:C91">
     <cfRule type="expression" dxfId="69" priority="71" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="expression" dxfId="68" priority="63" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82 A84:B91">
+  <conditionalFormatting sqref="B82 A84:B87">
+    <cfRule type="expression" dxfId="68" priority="72" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
     <cfRule type="expression" dxfId="67" priority="69" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C87">
-    <cfRule type="expression" dxfId="66" priority="66" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C91">
-    <cfRule type="expression" dxfId="65" priority="67" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82 A84:B87">
-    <cfRule type="expression" dxfId="64" priority="68" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="63" priority="65" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="62" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="68" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
+    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="64" priority="65" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="expression" dxfId="63" priority="64" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="expression" dxfId="62" priority="63" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:B37">
     <cfRule type="expression" dxfId="61" priority="62" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
+  <conditionalFormatting sqref="A37">
     <cfRule type="expression" dxfId="60" priority="61" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="B37">
     <cfRule type="expression" dxfId="59" priority="60" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
+    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:B42">
+    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="expression" dxfId="54" priority="55" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="51" priority="52" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56:C57">
+    <cfRule type="expression" dxfId="47" priority="47" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:B57">
+    <cfRule type="expression" dxfId="46" priority="49" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="44" priority="44" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61:B61">
+    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58">
+    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="38" priority="38" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:B63">
+    <cfRule type="expression" dxfId="37" priority="40" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="36" priority="37" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="34" priority="34" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:B62">
+    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:B30">
+    <cfRule type="expression" dxfId="31" priority="32" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="30" priority="30" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="29" priority="31" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="26" priority="27" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="25" priority="25" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="23" priority="26" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="expression" dxfId="56" priority="57" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="expression" dxfId="55" priority="56" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="54" priority="55" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:B42">
-    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="expression" dxfId="51" priority="52" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="49" priority="50" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="48" priority="49" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="47" priority="48" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="44" priority="44" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56:C57">
-    <cfRule type="expression" dxfId="43" priority="43" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56:B57">
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="40" priority="40" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="38" priority="41" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58">
-    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="36" priority="37" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="34" priority="34" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:B63">
-    <cfRule type="expression" dxfId="33" priority="36" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="32" priority="33" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="30" priority="30" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:B62">
-    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="28" priority="29" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30">
-    <cfRule type="expression" dxfId="27" priority="28" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="25" priority="27" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="24" priority="25" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="23" priority="24" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
     <cfRule type="expression" dxfId="22" priority="23" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="20" priority="20" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="19" priority="22" stopIfTrue="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+  <conditionalFormatting sqref="B38">
+    <cfRule type="expression" dxfId="21" priority="22" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="20" priority="21" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="expression" dxfId="19" priority="20" stopIfTrue="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
     <cfRule type="expression" dxfId="18" priority="19" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
+  <conditionalFormatting sqref="B45">
     <cfRule type="expression" dxfId="17" priority="18" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B45">
     <cfRule type="expression" dxfId="16" priority="17" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B45">
     <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
+  <conditionalFormatting sqref="B54">
     <cfRule type="expression" dxfId="14" priority="15" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B54">
     <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B54">
     <cfRule type="expression" dxfId="12" priority="13" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B63">
     <cfRule type="expression" dxfId="11" priority="12" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
+  <conditionalFormatting sqref="B63">
     <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
+  <conditionalFormatting sqref="B65">
     <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
+  <conditionalFormatting sqref="B65">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
+  <conditionalFormatting sqref="A82">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B63">
+  <conditionalFormatting sqref="A82">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
+  <conditionalFormatting sqref="A83:B83">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65">
+  <conditionalFormatting sqref="A83:B83">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
+  <conditionalFormatting sqref="A39:B39">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
+  <conditionalFormatting sqref="C39">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83:B83">
+  <conditionalFormatting sqref="B49">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83:B83">
+  <conditionalFormatting sqref="B53">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
